--- a/Document/My Ais/T9/T9_Prod_MyAIS_APP_3PE_EN.xlsx
+++ b/Document/My Ais/T9/T9_Prod_MyAIS_APP_3PE_EN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="345" windowWidth="20730" windowHeight="9735" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="345" windowWidth="20730" windowHeight="9735" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="7" r:id="rId1"/>
@@ -13,16 +13,17 @@
     <sheet name="TopupPayment" sheetId="13" r:id="rId4"/>
     <sheet name="Service" sheetId="4" r:id="rId5"/>
     <sheet name="Help &amp; Support" sheetId="5" r:id="rId6"/>
-    <sheet name="Hamburger" sheetId="9" r:id="rId7"/>
-    <sheet name="Touch ID" sheetId="10" r:id="rId8"/>
-    <sheet name="Quick Menu" sheetId="12" r:id="rId9"/>
+    <sheet name="My Account" sheetId="15" r:id="rId7"/>
+    <sheet name="Hamburger" sheetId="9" r:id="rId8"/>
+    <sheet name="Touch ID" sheetId="10" r:id="rId9"/>
+    <sheet name="Quick Menu" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2840" uniqueCount="2114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2977" uniqueCount="2180">
   <si>
     <r>
       <t>1. Login  MyAIS.
@@ -28216,6 +28217,509 @@
 8.Verify popup msg: You have entered invalid mobile number.
 9.Capture Screen</t>
   </si>
+  <si>
+    <t>F3. Add Member</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ตรวจสอบหน้า "บัญชี my AIS"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>กรณี: ไม่มี my List</t>
+    </r>
+  </si>
+  <si>
+    <t>Source Number :3PO
+Status : Active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Member :กรณี ไม่มี my List
+</t>
+  </si>
+  <si>
+    <t>1. Login MyAIS
+2. Click menu "Hamburger"
+3. Click menu "my AIS Account"
+4.  Click   "Add +"  Manage my AIS account
+5.Show AIS Member ที่อยู่ภายใต้ ID เดียวกัน
+ - AIS Postpaid
+ - AIS One -2- Call!
+ - AIS Fibre
+6. Click Request OTP
+7.Enter OTP and Click OK (เมื่อตรวจสอบจะพบเครื่องหมายติ๊กถูกข้างหน้าเบอร์ที่แอด Member"
+8.Click  "OK"
+**แสดงเบอร์ที่อยู่ใน my List</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ตรวจสอบหน้า "บัญชี my AIS"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>กรณี: มี my List</t>
+    </r>
+  </si>
+  <si>
+    <t>F4. ลบ Member</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ลบ Member :กรณี ไม่มี my List
+</t>
+  </si>
+  <si>
+    <t>1. Login MyAIS
+2. Click menu "Hamburger"
+3. Click menu "my AIS Account"
+4.  Click   "Add +"  Manage my AIS account
+5.Show AIS Member ที่อยู่ภายใต้ ID เดียวกัน
+ - AIS Postpaid
+ - AIS One -2- Call!
+ - AIS Fibre
+6. Click Request OTP
+7.Enter OTP and Click OK (เมื่อตรวจสอบจะพบเครื่องหมายติ๊กถูกข้างหน้าเบอร์ที่แอด Member"
+8.Click  "OK"
+**แสดงเบอร์ที่อยู่ใน my List
+9.Click "Delete"  Member 
+10.Click  "OK"
+11.Verify Pop up 
+12. Click  "OK"</t>
+  </si>
+  <si>
+    <t>ลบ Member :กรณีมี my List</t>
+  </si>
+  <si>
+    <t>1. Login MyAIS
+2. Click menu "Hamburger"
+3. Click menu "my AIS Account"
+4.แสดงหมายเลขในบัญชี my List
+-หมายเลขบัญชี 1 xxxxx
+-หมายเลขบัญชี 2 xxxxx
+5. Click Delete mobile No. in My List
+6.Click  "OK"
+5.Click  "Delete"
+6.Click  "OK"
+7.Verify Pop up 
+8. Capture Screen
+**ไม่แสดงเบอร์ที่ลบไปแล้วใน my List</t>
+  </si>
+  <si>
+    <t>Hamberger menu
+- Show sub menu</t>
+  </si>
+  <si>
+    <t>1. Login my AIS
+2. Click Hamberger menu
+3. Verify sub menu
+    - Create my AIS
+    - My Profile
+    - AIS Online Store
+    - AIS Website
+    - AIS Facebook
+    - AIS Twitter
+    - AIS Line
+    - Setting
+    - Log Out
+4. Capture Screen</t>
+  </si>
+  <si>
+    <t>Go to Create my AIS
+- Verify Create my AIS Page</t>
+  </si>
+  <si>
+    <t>1. Login my AIS
+2. Click Hamberger menu
+3. Click Create my AIS
+4. Verify Create my AIS Page
+    - Mobile Number / Internet Number *
+    - ID Card Number (13 digits) *
+    - Email *
+    - Back &amp; Reguest OTP (button)
+5. Capture Screen</t>
+  </si>
+  <si>
+    <t>Go to My Profile
+- Verify My Profile Page</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Login my AIS
+2. Click Hamberger menu
+3. Click My Profile
+4. Verify My Profile Page
+    - Name
+    - Mobile number
+    - Birthday
+    - Segment
+    - Service year
+    - Message
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    - Your Bill Cycle
+      • Bill Cycle (Start date - End date)
+      • Payment Dye Date :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    - Your Bill Media
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      • Bill Media Preference :
+      • Preferred bill language :
+    - Billing Address
+      • First - Last Name :
+      • Address :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5. Capture Screen</t>
+    </r>
+  </si>
+  <si>
+    <t>Go to AIS Online Store
+- Verify AIS Online Store Page</t>
+  </si>
+  <si>
+    <t>1. Login my AIS
+2. Click Hamberger menu
+3. Click AIS Online Store
+4. Verify AIS Online Store Page
+5. Capture Screen</t>
+  </si>
+  <si>
+    <t>Go to AIS Website
+- Verify AIS Website Page</t>
+  </si>
+  <si>
+    <t>1. Login my AIS
+2. Click Hamberger menu
+3. Click AIS Website
+4. Verify AIS Website Page
+5. Capture Screen</t>
+  </si>
+  <si>
+    <t>Go to AIS Facebook
+- Verify AIS Facebook Page</t>
+  </si>
+  <si>
+    <t>1. Login my AIS
+2. Click Hamberger menu
+3. Click AIS Facebook 
+4. Verify AIS Facebook Page
+5. Capture Screen</t>
+  </si>
+  <si>
+    <t>Go to AIS Twitter
+- Verify AIS Twitter Page</t>
+  </si>
+  <si>
+    <t>1. Login my AIS
+2. Click Hamberger menu
+3. Click AIS Twitter
+4. Verify AIS Twitter Page
+5. Capture Screen</t>
+  </si>
+  <si>
+    <t>Go to AIS Line
+- Verify AIS Line Page</t>
+  </si>
+  <si>
+    <t>1. Login my AIS
+2. Click Hamberger menu
+3. Click AIS Line
+4. Verify AIS Line Page
+5. Capture Screen</t>
+  </si>
+  <si>
+    <t>Go to Settings
+- Verify Settings display</t>
+  </si>
+  <si>
+    <t>1. Login my AIS
+2. Click Hamberger menu
+3. Click Settings 
+4. Verify Settings display
+    - Language
+    - Notification
+    - Terms &amp; Conditions
+5. Capture Screen</t>
+  </si>
+  <si>
+    <t>Log Out
+- Verify Login display</t>
+  </si>
+  <si>
+    <t>1. Login my AIS
+2. Click Hamberger menu
+3. Click Log Out
+4. Verify Login display
+5. Capture Screen</t>
+  </si>
+  <si>
+    <t>1. Login my AIS
+2. Click Hamberger menu
+3. Verify sub menu
+    - my AIS Account
+    - My Profile
+    - AIS Online Store
+    - AIS Website
+    - AIS Facebook
+    - AIS Twitter
+    - AIS Line
+    - Setting
+    - Log Out
+4. Capture Screen</t>
+  </si>
+  <si>
+    <t>Go to my AIS Account
+- Verify my AIS Account Page</t>
+  </si>
+  <si>
+    <t>1. Login my AIS
+2. Click Hamberger menu
+3. Click my AIS Account
+4. Verify my AIS Account Page
+    - my AIS Account
+      • Main number
+      • Email address
+      • Password
+    - My List
+      • AIS Postpaid
+      • 06x-xxx-xxxx
+    Manage my AIS Account
+    - Add+ (button)
+5. Capture Screen</t>
+  </si>
+  <si>
+    <t>Go to My Profile
+- Verify Create My Profile Page</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Login my AIS
+2. Click Hamberger menu
+3. Click My Profile
+4. Verify My Profile Page
+    - Name
+    - Mobile number
+    - Birthday
+    - Segment
+    - Service year
+    - Message
+    - Your Bill Cycle
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      • Bill Cycle (Start date - End date)
+      • Payment Dye Date :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    - Your Bill Media
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      • Bill Media Preference :
+      • Preferred bill language :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    - Billing Address
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      • First - Last Name :
+      • Address :
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5. Capture Screen</t>
+    </r>
+  </si>
+  <si>
+    <t>F3_Hamburger_2_2_Y_1_1</t>
+  </si>
+  <si>
+    <t>F3_Hamburger_2_2_Y_2_1</t>
+  </si>
+  <si>
+    <t>F3_Hamburger_2_2_Y_3_1</t>
+  </si>
+  <si>
+    <t>F4_Hamburger_2_2_Y_1_1</t>
+  </si>
+  <si>
+    <t>F4_Hamburger_2_2_Y_2_1</t>
+  </si>
+  <si>
+    <t>F1_MyAccount_2_2_Y_1_1</t>
+  </si>
+  <si>
+    <t>F1_MyAccount_2_2_Y_2_1</t>
+  </si>
+  <si>
+    <t>F1_MyAccount_2_2_Y_3_1</t>
+  </si>
+  <si>
+    <t>F1_MyAccount_2_2_Y_4_1</t>
+  </si>
+  <si>
+    <t>F1_MyAccount_2_2_Y_5_1</t>
+  </si>
+  <si>
+    <t>F1_MyAccount_2_2_Y_6_1</t>
+  </si>
+  <si>
+    <t>F1_MyAccount_2_2_Y_7_1</t>
+  </si>
+  <si>
+    <t>F1_MyAccount_2_2_Y_8_1</t>
+  </si>
+  <si>
+    <t>F1_MyAccount_2_2_Y_9_1</t>
+  </si>
+  <si>
+    <t>F1_MyAccount_2_2_Y_10_1</t>
+  </si>
+  <si>
+    <t>F2_MyAccount_2_2_Y_1_1</t>
+  </si>
+  <si>
+    <t>F2_MyAccount_2_2_Y_2_1</t>
+  </si>
+  <si>
+    <t>F2_MyAccount_2_2_Y_3_1</t>
+  </si>
+  <si>
+    <t>F2_MyAccount_2_2_Y_4_1</t>
+  </si>
+  <si>
+    <t>F2_MyAccount_2_2_Y_5_1</t>
+  </si>
+  <si>
+    <t>F2_MyAccount_2_2_Y_6_1</t>
+  </si>
+  <si>
+    <t>F2_MyAccount_2_2_Y_7_1</t>
+  </si>
+  <si>
+    <t>F2_MyAccount_2_2_Y_8_1</t>
+  </si>
+  <si>
+    <t>F2_MyAccount_2_2_Y_9_1</t>
+  </si>
+  <si>
+    <t>F2_MyAccount_2_2_Y_10_1</t>
+  </si>
+  <si>
+    <t>F3_MyAccount_2_2_Y_1_1</t>
+  </si>
+  <si>
+    <t>F3_MyAccount_2_2_Y_2_1</t>
+  </si>
+  <si>
+    <t>F3_MyAccount_2_2_Y_3_1</t>
+  </si>
+  <si>
+    <t>F4_MyAccount_2_2_Y_1_1</t>
+  </si>
+  <si>
+    <t>F4_MyAccount_2_2_Y_2_1</t>
+  </si>
 </sst>
 </file>
 
@@ -28224,7 +28728,7 @@
   <numFmts count="1">
     <numFmt numFmtId="187" formatCode="m/d/yy"/>
   </numFmts>
-  <fonts count="87" x14ac:knownFonts="1">
+  <fonts count="88" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28814,8 +29318,15 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="28">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -28975,6 +29486,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -29308,7 +29831,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -29321,8 +29844,9 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="472">
+  <cellXfs count="488">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -30483,77 +31007,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="9" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="9" borderId="16" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="17" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="48" fillId="10" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="18" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="19" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="48" fillId="11" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="20" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="9" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="9" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="10" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="12" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="17" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="17" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="17" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="17" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="9" borderId="16" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="61" fillId="9" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="61" fillId="9" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="9" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="7" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="61" fillId="9" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="49" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -30575,11 +31028,125 @@
     <xf numFmtId="0" fontId="18" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="9" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="11" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="10" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="20" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="17" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="54" fillId="12" borderId="8" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="10" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="18" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="19" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="9" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="9" borderId="16" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="11" borderId="9" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="9" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="17" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="17" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="17" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="17" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="9" borderId="16" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="61" fillId="9" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="61" fillId="9" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="9" borderId="15" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="61" fillId="9" borderId="15" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="13">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 11 10" xfId="1"/>
     <cellStyle name="Normal 15" xfId="2"/>
+    <cellStyle name="Normal 15 3" xfId="12"/>
     <cellStyle name="Normal 2" xfId="3"/>
     <cellStyle name="Normal 2 10" xfId="4"/>
     <cellStyle name="Normal 2 2" xfId="5"/>
@@ -31089,7 +31656,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31133,7 +31700,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31177,7 +31744,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31221,7 +31788,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31265,7 +31832,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31309,7 +31876,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31353,7 +31920,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31397,7 +31964,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31441,7 +32008,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31485,7 +32052,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31529,7 +32096,7 @@
         <xdr:cNvPr id="12" name="Picture 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31573,7 +32140,7 @@
         <xdr:cNvPr id="13" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31617,7 +32184,7 @@
         <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000022000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31661,7 +32228,7 @@
         <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000027000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31705,7 +32272,7 @@
         <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000028000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -31901,7 +32468,7 @@
         <xdr:cNvPr id="21" name="Picture 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -35637,6 +36204,2614 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L114"/>
+  <sheetViews>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.25" style="271" customWidth="1"/>
+    <col min="2" max="2" width="19" style="271" customWidth="1"/>
+    <col min="3" max="3" width="26.875" style="271" customWidth="1"/>
+    <col min="4" max="4" width="39.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" style="271" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="271"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="466" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="468" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="468" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="469" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="469" t="s">
+        <v>915</v>
+      </c>
+      <c r="F1" s="468" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="468" t="s">
+        <v>916</v>
+      </c>
+      <c r="H1" s="468" t="s">
+        <v>917</v>
+      </c>
+      <c r="I1" s="468" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" s="468" t="s">
+        <v>98</v>
+      </c>
+      <c r="K1" s="471" t="s">
+        <v>918</v>
+      </c>
+      <c r="L1" s="464" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="467"/>
+      <c r="B2" s="467"/>
+      <c r="C2" s="467"/>
+      <c r="D2" s="470"/>
+      <c r="E2" s="470"/>
+      <c r="F2" s="467"/>
+      <c r="G2" s="467"/>
+      <c r="H2" s="467"/>
+      <c r="I2" s="467"/>
+      <c r="J2" s="467"/>
+      <c r="K2" s="467"/>
+      <c r="L2" s="465"/>
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="272" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B3" s="273"/>
+      <c r="C3" s="273"/>
+      <c r="D3" s="302"/>
+      <c r="E3" s="302"/>
+      <c r="F3" s="273"/>
+      <c r="G3" s="273"/>
+      <c r="H3" s="273"/>
+      <c r="I3" s="273"/>
+      <c r="J3" s="274"/>
+      <c r="K3" s="275"/>
+      <c r="L3" s="276"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="277" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B4" s="278"/>
+      <c r="C4" s="278"/>
+      <c r="D4" s="303"/>
+      <c r="E4" s="303"/>
+      <c r="F4" s="278"/>
+      <c r="G4" s="278"/>
+      <c r="H4" s="278"/>
+      <c r="I4" s="278"/>
+      <c r="J4" s="279"/>
+      <c r="K4" s="280"/>
+      <c r="L4" s="281"/>
+    </row>
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="27" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B5" s="282" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C5" s="283" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D5" s="304" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E5" s="305" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F5" s="284"/>
+      <c r="G5" s="284"/>
+      <c r="H5" s="285"/>
+      <c r="I5" s="286"/>
+      <c r="J5" s="284"/>
+      <c r="K5" s="287"/>
+      <c r="L5" s="288"/>
+    </row>
+    <row r="6" spans="1:12" s="291" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="27" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C6" s="283" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D6" s="306" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E6" s="306" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F6" s="289"/>
+      <c r="G6" s="290"/>
+      <c r="H6" s="290"/>
+      <c r="I6" s="290"/>
+      <c r="J6" s="290"/>
+      <c r="K6" s="290"/>
+      <c r="L6" s="290"/>
+    </row>
+    <row r="7" spans="1:12" s="291" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="27" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C7" s="283" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D7" s="306" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E7" s="306" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F7" s="289"/>
+      <c r="G7" s="290"/>
+      <c r="H7" s="290"/>
+      <c r="I7" s="290"/>
+      <c r="J7" s="290"/>
+      <c r="K7" s="290"/>
+      <c r="L7" s="290"/>
+    </row>
+    <row r="8" spans="1:12" s="291" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="27" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C8" s="283" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D8" s="306" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E8" s="306" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F8" s="289"/>
+      <c r="G8" s="290"/>
+      <c r="H8" s="290"/>
+      <c r="I8" s="290"/>
+      <c r="J8" s="290"/>
+      <c r="K8" s="290"/>
+      <c r="L8" s="290"/>
+    </row>
+    <row r="9" spans="1:12" s="291" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="27" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C9" s="283" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D9" s="306" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E9" s="306" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F9" s="289"/>
+      <c r="G9" s="290"/>
+      <c r="H9" s="290"/>
+      <c r="I9" s="290"/>
+      <c r="J9" s="290"/>
+      <c r="K9" s="290"/>
+      <c r="L9" s="290"/>
+    </row>
+    <row r="10" spans="1:12" s="291" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="27" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C10" s="283" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D10" s="306" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E10" s="306" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F10" s="289"/>
+      <c r="G10" s="290"/>
+      <c r="H10" s="290"/>
+      <c r="I10" s="290"/>
+      <c r="J10" s="290"/>
+      <c r="K10" s="290"/>
+      <c r="L10" s="290"/>
+    </row>
+    <row r="11" spans="1:12" s="291" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="27" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C11" s="283" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D11" s="306" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E11" s="306" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F11" s="289"/>
+      <c r="G11" s="290"/>
+      <c r="H11" s="290"/>
+      <c r="I11" s="290"/>
+      <c r="J11" s="290"/>
+      <c r="K11" s="290"/>
+      <c r="L11" s="290"/>
+    </row>
+    <row r="12" spans="1:12" s="291" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="27" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C12" s="283" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D12" s="306" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E12" s="306" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F12" s="289"/>
+      <c r="G12" s="290"/>
+      <c r="H12" s="290"/>
+      <c r="I12" s="290"/>
+      <c r="J12" s="290"/>
+      <c r="K12" s="290"/>
+      <c r="L12" s="290"/>
+    </row>
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="27" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B13" s="292" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C13" s="283" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D13" s="307" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E13" s="308" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F13" s="293"/>
+      <c r="G13" s="293"/>
+      <c r="H13" s="293"/>
+      <c r="I13" s="293"/>
+      <c r="J13" s="293"/>
+      <c r="K13" s="294"/>
+      <c r="L13" s="294"/>
+    </row>
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="295" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B14" s="296"/>
+      <c r="C14" s="296"/>
+      <c r="D14" s="303"/>
+      <c r="E14" s="303"/>
+      <c r="F14" s="296"/>
+      <c r="G14" s="296"/>
+      <c r="H14" s="296"/>
+      <c r="I14" s="296"/>
+      <c r="J14" s="297"/>
+      <c r="K14" s="280"/>
+      <c r="L14" s="281"/>
+    </row>
+    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="27" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B15" s="298" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C15" s="283" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D15" s="309" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E15" s="309" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F15" s="299"/>
+      <c r="G15" s="299"/>
+      <c r="H15" s="299"/>
+      <c r="I15" s="299"/>
+      <c r="J15" s="299"/>
+      <c r="K15" s="299"/>
+      <c r="L15" s="299"/>
+    </row>
+    <row r="16" spans="1:12" s="291" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="27" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B16" s="292" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C16" s="283" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D16" s="309" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E16" s="306" t="s">
+        <v>1149</v>
+      </c>
+      <c r="F16" s="293"/>
+      <c r="G16" s="293"/>
+      <c r="H16" s="293"/>
+      <c r="I16" s="293"/>
+      <c r="J16" s="293"/>
+      <c r="K16" s="293"/>
+      <c r="L16" s="293"/>
+    </row>
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="27" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B17" s="298" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C17" s="283" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D17" s="309" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E17" s="310" t="s">
+        <v>1151</v>
+      </c>
+      <c r="F17" s="299"/>
+      <c r="G17" s="299"/>
+      <c r="H17" s="299"/>
+      <c r="I17" s="299"/>
+      <c r="J17" s="299"/>
+      <c r="K17" s="299"/>
+      <c r="L17" s="299"/>
+    </row>
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="27" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B18" s="298" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C18" s="283" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D18" s="309" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E18" s="310" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F18" s="299"/>
+      <c r="G18" s="299"/>
+      <c r="H18" s="299"/>
+      <c r="I18" s="299"/>
+      <c r="J18" s="299"/>
+      <c r="K18" s="299"/>
+      <c r="L18" s="299"/>
+    </row>
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="27" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B19" s="298" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C19" s="283" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D19" s="309" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E19" s="310" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F19" s="299"/>
+      <c r="G19" s="299"/>
+      <c r="H19" s="299"/>
+      <c r="I19" s="299"/>
+      <c r="J19" s="299"/>
+      <c r="K19" s="299"/>
+      <c r="L19" s="299"/>
+    </row>
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="27" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B20" s="298" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C20" s="283" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D20" s="309" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E20" s="310" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F20" s="299"/>
+      <c r="G20" s="299"/>
+      <c r="H20" s="299"/>
+      <c r="I20" s="299"/>
+      <c r="J20" s="299"/>
+      <c r="K20" s="299"/>
+      <c r="L20" s="299"/>
+    </row>
+    <row r="21" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="27" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B21" s="298" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C21" s="283" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D21" s="309" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E21" s="310" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F21" s="299"/>
+      <c r="G21" s="299"/>
+      <c r="H21" s="299"/>
+      <c r="I21" s="299"/>
+      <c r="J21" s="299"/>
+      <c r="K21" s="299"/>
+      <c r="L21" s="299"/>
+    </row>
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="300" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B22" s="301"/>
+      <c r="C22" s="301"/>
+      <c r="D22" s="303"/>
+      <c r="E22" s="303"/>
+      <c r="F22" s="301"/>
+      <c r="G22" s="301"/>
+      <c r="H22" s="301"/>
+      <c r="I22" s="301"/>
+      <c r="J22" s="301"/>
+      <c r="K22" s="301"/>
+      <c r="L22" s="301"/>
+    </row>
+    <row r="23" spans="1:12" s="291" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="27" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B23" s="307" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C23" s="311" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D23" s="306" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E23" s="306" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F23" s="290"/>
+      <c r="G23" s="290"/>
+      <c r="H23" s="290"/>
+      <c r="I23" s="290"/>
+      <c r="J23" s="290"/>
+      <c r="K23" s="290"/>
+      <c r="L23" s="290"/>
+    </row>
+    <row r="24" spans="1:12" s="291" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="27" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B24" s="307" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C24" s="311" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D24" s="306" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E24" s="306" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F24" s="290"/>
+      <c r="G24" s="290"/>
+      <c r="H24" s="290"/>
+      <c r="I24" s="290"/>
+      <c r="J24" s="290"/>
+      <c r="K24" s="290"/>
+      <c r="L24" s="290"/>
+    </row>
+    <row r="25" spans="1:12" s="291" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="27" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B25" s="307" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C25" s="311" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D25" s="306" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E25" s="306" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F25" s="290"/>
+      <c r="G25" s="290"/>
+      <c r="H25" s="290"/>
+      <c r="I25" s="290"/>
+      <c r="J25" s="290"/>
+      <c r="K25" s="290"/>
+      <c r="L25" s="290"/>
+    </row>
+    <row r="26" spans="1:12" s="312" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="460" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B26" s="461"/>
+      <c r="C26" s="461"/>
+      <c r="D26" s="461"/>
+      <c r="E26" s="461"/>
+      <c r="F26" s="461"/>
+      <c r="G26" s="461"/>
+      <c r="H26" s="461"/>
+      <c r="I26" s="461"/>
+      <c r="J26" s="461"/>
+      <c r="K26" s="461"/>
+      <c r="L26" s="462"/>
+    </row>
+    <row r="27" spans="1:12" s="312" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="27" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B27" s="310" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C27" s="311" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D27" s="310" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E27" s="313" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F27" s="310"/>
+      <c r="G27" s="314"/>
+      <c r="H27" s="314"/>
+      <c r="I27" s="314"/>
+      <c r="J27" s="314"/>
+      <c r="K27" s="314"/>
+      <c r="L27" s="314"/>
+    </row>
+    <row r="28" spans="1:12" s="312" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="27" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B28" s="313" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C28" s="311" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D28" s="310" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E28" s="313" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F28" s="315"/>
+      <c r="G28" s="315"/>
+      <c r="H28" s="315"/>
+      <c r="I28" s="315"/>
+      <c r="J28" s="315"/>
+      <c r="K28" s="315"/>
+      <c r="L28" s="315"/>
+    </row>
+    <row r="29" spans="1:12" s="312" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="27" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B29" s="313" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C29" s="311" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D29" s="310" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E29" s="313" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F29" s="315"/>
+      <c r="G29" s="315"/>
+      <c r="H29" s="315"/>
+      <c r="I29" s="315"/>
+      <c r="J29" s="315"/>
+      <c r="K29" s="315"/>
+      <c r="L29" s="315"/>
+    </row>
+    <row r="30" spans="1:12" s="312" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="27" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B30" s="313" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C30" s="311" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D30" s="310" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E30" s="313" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F30" s="315"/>
+      <c r="G30" s="315"/>
+      <c r="H30" s="315"/>
+      <c r="I30" s="315"/>
+      <c r="J30" s="315"/>
+      <c r="K30" s="315"/>
+      <c r="L30" s="315"/>
+    </row>
+    <row r="31" spans="1:12" s="312" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="27" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B31" s="313" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C31" s="311" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D31" s="310" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E31" s="313" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F31" s="315"/>
+      <c r="G31" s="315"/>
+      <c r="H31" s="315"/>
+      <c r="I31" s="315"/>
+      <c r="J31" s="315"/>
+      <c r="K31" s="315"/>
+      <c r="L31" s="315"/>
+    </row>
+    <row r="32" spans="1:12" s="312" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="27" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B32" s="313" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C32" s="311" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D32" s="310" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E32" s="313" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F32" s="315"/>
+      <c r="G32" s="315"/>
+      <c r="H32" s="315"/>
+      <c r="I32" s="315"/>
+      <c r="J32" s="315"/>
+      <c r="K32" s="315"/>
+      <c r="L32" s="315"/>
+    </row>
+    <row r="33" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="27" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B33" s="306" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C33" s="311" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D33" s="316" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E33" s="306" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F33" s="317"/>
+      <c r="G33" s="317"/>
+      <c r="H33" s="317"/>
+      <c r="I33" s="317"/>
+      <c r="J33" s="317"/>
+      <c r="K33" s="317"/>
+      <c r="L33" s="317"/>
+    </row>
+    <row r="34" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="27" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B34" s="306" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C34" s="311" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D34" s="316" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E34" s="306" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F34" s="317"/>
+      <c r="G34" s="317"/>
+      <c r="H34" s="317"/>
+      <c r="I34" s="317"/>
+      <c r="J34" s="317"/>
+      <c r="K34" s="317"/>
+      <c r="L34" s="317"/>
+    </row>
+    <row r="35" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="27" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B35" s="306" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C35" s="311" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D35" s="316" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E35" s="306" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F35" s="317"/>
+      <c r="G35" s="317"/>
+      <c r="H35" s="317"/>
+      <c r="I35" s="317"/>
+      <c r="J35" s="317"/>
+      <c r="K35" s="317"/>
+      <c r="L35" s="317"/>
+    </row>
+    <row r="36" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="27" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B36" s="306" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C36" s="311" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D36" s="316" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E36" s="306" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F36" s="317"/>
+      <c r="G36" s="317"/>
+      <c r="H36" s="317"/>
+      <c r="I36" s="317"/>
+      <c r="J36" s="317"/>
+      <c r="K36" s="317"/>
+      <c r="L36" s="317"/>
+    </row>
+    <row r="37" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="27" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B37" s="306" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C37" s="311" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D37" s="316" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E37" s="306" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F37" s="317"/>
+      <c r="G37" s="317"/>
+      <c r="H37" s="317"/>
+      <c r="I37" s="317"/>
+      <c r="J37" s="317"/>
+      <c r="K37" s="317"/>
+      <c r="L37" s="317"/>
+    </row>
+    <row r="38" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="318" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B38" s="319"/>
+      <c r="C38" s="319"/>
+      <c r="D38" s="319"/>
+      <c r="E38" s="319"/>
+      <c r="F38" s="319"/>
+      <c r="G38" s="319"/>
+      <c r="H38" s="319"/>
+      <c r="I38" s="319"/>
+      <c r="J38" s="319"/>
+      <c r="K38" s="319"/>
+      <c r="L38" s="320"/>
+    </row>
+    <row r="39" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="27" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B39" s="316" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C39" s="311" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D39" s="316" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E39" s="306" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F39" s="317"/>
+      <c r="G39" s="317"/>
+      <c r="H39" s="317"/>
+      <c r="I39" s="317"/>
+      <c r="J39" s="317"/>
+      <c r="K39" s="317"/>
+      <c r="L39" s="317"/>
+    </row>
+    <row r="40" spans="1:12" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="27" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B40" s="306" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C40" s="311" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D40" s="316" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E40" s="306" t="s">
+        <v>1362</v>
+      </c>
+      <c r="F40" s="317"/>
+      <c r="G40" s="317"/>
+      <c r="H40" s="317"/>
+      <c r="I40" s="317"/>
+      <c r="J40" s="317"/>
+      <c r="K40" s="317"/>
+      <c r="L40" s="317"/>
+    </row>
+    <row r="41" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="27" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B41" s="306" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C41" s="311" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D41" s="316" t="s">
+        <v>1204</v>
+      </c>
+      <c r="E41" s="306" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F41" s="317"/>
+      <c r="G41" s="317"/>
+      <c r="H41" s="317"/>
+      <c r="I41" s="317"/>
+      <c r="J41" s="317"/>
+      <c r="K41" s="317"/>
+      <c r="L41" s="317"/>
+    </row>
+    <row r="42" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="318" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B42" s="319"/>
+      <c r="C42" s="319"/>
+      <c r="D42" s="319"/>
+      <c r="E42" s="319"/>
+      <c r="F42" s="319"/>
+      <c r="G42" s="319"/>
+      <c r="H42" s="319"/>
+      <c r="I42" s="319"/>
+      <c r="J42" s="319"/>
+      <c r="K42" s="319"/>
+      <c r="L42" s="320"/>
+    </row>
+    <row r="43" spans="1:12" s="338" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="334" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B43" s="335" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C43" s="336" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D43" s="335" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E43" s="335" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F43" s="337"/>
+      <c r="G43" s="337"/>
+      <c r="H43" s="337"/>
+      <c r="I43" s="337"/>
+      <c r="J43" s="337"/>
+      <c r="K43" s="337"/>
+      <c r="L43" s="337"/>
+    </row>
+    <row r="44" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="27" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B44" s="306" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C44" s="311" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D44" s="316" t="s">
+        <v>1210</v>
+      </c>
+      <c r="E44" s="306" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F44" s="317"/>
+      <c r="G44" s="317"/>
+      <c r="H44" s="317"/>
+      <c r="I44" s="317"/>
+      <c r="J44" s="317"/>
+      <c r="K44" s="317"/>
+      <c r="L44" s="317"/>
+    </row>
+    <row r="45" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="27" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B45" s="306" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C45" s="311" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D45" s="316" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E45" s="306" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F45" s="317"/>
+      <c r="G45" s="317"/>
+      <c r="H45" s="317"/>
+      <c r="I45" s="317"/>
+      <c r="J45" s="317"/>
+      <c r="K45" s="317"/>
+      <c r="L45" s="317"/>
+    </row>
+    <row r="46" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="27" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B46" s="306" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C46" s="311" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D46" s="316" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E46" s="306" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F46" s="317"/>
+      <c r="G46" s="317"/>
+      <c r="H46" s="317"/>
+      <c r="I46" s="317"/>
+      <c r="J46" s="317"/>
+      <c r="K46" s="317"/>
+      <c r="L46" s="317"/>
+    </row>
+    <row r="47" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="27" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B47" s="306" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C47" s="311" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D47" s="316" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E47" s="306" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F47" s="317"/>
+      <c r="G47" s="317"/>
+      <c r="H47" s="317"/>
+      <c r="I47" s="317"/>
+      <c r="J47" s="317"/>
+      <c r="K47" s="317"/>
+      <c r="L47" s="317"/>
+    </row>
+    <row r="48" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="318" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B48" s="319"/>
+      <c r="C48" s="319"/>
+      <c r="D48" s="319"/>
+      <c r="E48" s="319"/>
+      <c r="F48" s="319"/>
+      <c r="G48" s="319"/>
+      <c r="H48" s="319"/>
+      <c r="I48" s="319"/>
+      <c r="J48" s="319"/>
+      <c r="K48" s="319"/>
+      <c r="L48" s="320"/>
+    </row>
+    <row r="49" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="27" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B49" s="316" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C49" s="311" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D49" s="316" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E49" s="306" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F49" s="317"/>
+      <c r="G49" s="317"/>
+      <c r="H49" s="317"/>
+      <c r="I49" s="317"/>
+      <c r="J49" s="317"/>
+      <c r="K49" s="317"/>
+      <c r="L49" s="317"/>
+    </row>
+    <row r="50" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="27" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B50" s="306" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C50" s="311" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D50" s="316" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E50" s="306" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F50" s="317"/>
+      <c r="G50" s="317"/>
+      <c r="H50" s="317"/>
+      <c r="I50" s="317"/>
+      <c r="J50" s="317"/>
+      <c r="K50" s="317"/>
+      <c r="L50" s="317"/>
+    </row>
+    <row r="51" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="318" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B51" s="319"/>
+      <c r="C51" s="319"/>
+      <c r="D51" s="319"/>
+      <c r="E51" s="319"/>
+      <c r="F51" s="319"/>
+      <c r="G51" s="319"/>
+      <c r="H51" s="319"/>
+      <c r="I51" s="319"/>
+      <c r="J51" s="319"/>
+      <c r="K51" s="319"/>
+      <c r="L51" s="320"/>
+    </row>
+    <row r="52" spans="1:12" s="338" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="334" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B52" s="335" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C52" s="336" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D52" s="335" t="s">
+        <v>1227</v>
+      </c>
+      <c r="E52" s="335" t="s">
+        <v>1404</v>
+      </c>
+      <c r="F52" s="337"/>
+      <c r="G52" s="337"/>
+      <c r="H52" s="337"/>
+      <c r="I52" s="337"/>
+      <c r="J52" s="337"/>
+      <c r="K52" s="337"/>
+      <c r="L52" s="337"/>
+    </row>
+    <row r="53" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="27" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B53" s="306" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C53" s="311" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D53" s="316" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E53" s="306" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F53" s="317"/>
+      <c r="G53" s="317"/>
+      <c r="H53" s="317"/>
+      <c r="I53" s="317"/>
+      <c r="J53" s="317"/>
+      <c r="K53" s="317"/>
+      <c r="L53" s="317"/>
+    </row>
+    <row r="54" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="27" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B54" s="306" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C54" s="311" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D54" s="316" t="s">
+        <v>1232</v>
+      </c>
+      <c r="E54" s="306" t="s">
+        <v>1233</v>
+      </c>
+      <c r="F54" s="317"/>
+      <c r="G54" s="317"/>
+      <c r="H54" s="317"/>
+      <c r="I54" s="317"/>
+      <c r="J54" s="317"/>
+      <c r="K54" s="317"/>
+      <c r="L54" s="317"/>
+    </row>
+    <row r="55" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="459" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B55" s="459"/>
+      <c r="C55" s="459"/>
+      <c r="D55" s="459"/>
+      <c r="E55" s="459"/>
+      <c r="F55" s="459"/>
+      <c r="G55" s="459"/>
+      <c r="H55" s="459"/>
+      <c r="I55" s="459"/>
+      <c r="J55" s="459"/>
+      <c r="K55" s="459"/>
+      <c r="L55" s="459"/>
+    </row>
+    <row r="56" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="27" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B56" s="310" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C56" s="311" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D56" s="310" t="s">
+        <v>1234</v>
+      </c>
+      <c r="E56" s="313" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F56" s="317"/>
+      <c r="G56" s="317"/>
+      <c r="H56" s="317"/>
+      <c r="I56" s="317"/>
+      <c r="J56" s="317"/>
+      <c r="K56" s="317"/>
+      <c r="L56" s="317"/>
+    </row>
+    <row r="57" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="27" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B57" s="313" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C57" s="311" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D57" s="310" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E57" s="306" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F57" s="317"/>
+      <c r="G57" s="317"/>
+      <c r="H57" s="317"/>
+      <c r="I57" s="317"/>
+      <c r="J57" s="317"/>
+      <c r="K57" s="317"/>
+      <c r="L57" s="317"/>
+    </row>
+    <row r="58" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="459" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B58" s="459"/>
+      <c r="C58" s="459"/>
+      <c r="D58" s="459"/>
+      <c r="E58" s="459"/>
+      <c r="F58" s="459"/>
+      <c r="G58" s="459"/>
+      <c r="H58" s="459"/>
+      <c r="I58" s="459"/>
+      <c r="J58" s="459"/>
+      <c r="K58" s="459"/>
+      <c r="L58" s="459"/>
+    </row>
+    <row r="59" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="27" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B59" s="316" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C59" s="311" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D59" s="316" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E59" s="306" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F59" s="317"/>
+      <c r="G59" s="317"/>
+      <c r="H59" s="317"/>
+      <c r="I59" s="317"/>
+      <c r="J59" s="317"/>
+      <c r="K59" s="317"/>
+      <c r="L59" s="317"/>
+    </row>
+    <row r="60" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="27" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B60" s="306" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C60" s="311" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D60" s="316" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E60" s="306" t="s">
+        <v>1243</v>
+      </c>
+      <c r="F60" s="317"/>
+      <c r="G60" s="317"/>
+      <c r="H60" s="317"/>
+      <c r="I60" s="317"/>
+      <c r="J60" s="317"/>
+      <c r="K60" s="317"/>
+      <c r="L60" s="317"/>
+    </row>
+    <row r="61" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="459" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B61" s="459"/>
+      <c r="C61" s="459"/>
+      <c r="D61" s="459"/>
+      <c r="E61" s="459"/>
+      <c r="F61" s="459"/>
+      <c r="G61" s="459"/>
+      <c r="H61" s="459"/>
+      <c r="I61" s="459"/>
+      <c r="J61" s="459"/>
+      <c r="K61" s="459"/>
+      <c r="L61" s="459"/>
+    </row>
+    <row r="62" spans="1:12" s="338" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="334" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B62" s="335" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C62" s="336" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D62" s="335" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E62" s="335" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F62" s="337"/>
+      <c r="G62" s="337"/>
+      <c r="H62" s="337"/>
+      <c r="I62" s="337"/>
+      <c r="J62" s="337"/>
+      <c r="K62" s="337"/>
+      <c r="L62" s="337"/>
+    </row>
+    <row r="63" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="27" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B63" s="306" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C63" s="311" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D63" s="316" t="s">
+        <v>1248</v>
+      </c>
+      <c r="E63" s="306" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F63" s="317"/>
+      <c r="G63" s="317"/>
+      <c r="H63" s="317"/>
+      <c r="I63" s="317"/>
+      <c r="J63" s="317"/>
+      <c r="K63" s="317"/>
+      <c r="L63" s="317"/>
+    </row>
+    <row r="64" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="460" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B64" s="461"/>
+      <c r="C64" s="461"/>
+      <c r="D64" s="461"/>
+      <c r="E64" s="461"/>
+      <c r="F64" s="461"/>
+      <c r="G64" s="461"/>
+      <c r="H64" s="461"/>
+      <c r="I64" s="461"/>
+      <c r="J64" s="461"/>
+      <c r="K64" s="461"/>
+      <c r="L64" s="462"/>
+    </row>
+    <row r="65" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="27" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B65" s="316" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C65" s="311" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D65" s="316" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E65" s="306" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F65" s="317"/>
+      <c r="G65" s="317"/>
+      <c r="H65" s="317"/>
+      <c r="I65" s="317"/>
+      <c r="J65" s="317"/>
+      <c r="K65" s="317"/>
+      <c r="L65" s="317"/>
+    </row>
+    <row r="66" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="27" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B66" s="306" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C66" s="311" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D66" s="316" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E66" s="306" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F66" s="317"/>
+      <c r="G66" s="317"/>
+      <c r="H66" s="317"/>
+      <c r="I66" s="317"/>
+      <c r="J66" s="317"/>
+      <c r="K66" s="317"/>
+      <c r="L66" s="317"/>
+    </row>
+    <row r="67" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="27" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B67" s="306" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C67" s="311" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D67" s="316" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E67" s="306" t="s">
+        <v>1258</v>
+      </c>
+      <c r="F67" s="317"/>
+      <c r="G67" s="317"/>
+      <c r="H67" s="317"/>
+      <c r="I67" s="317"/>
+      <c r="J67" s="317"/>
+      <c r="K67" s="317"/>
+      <c r="L67" s="317"/>
+    </row>
+    <row r="68" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="27" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B68" s="306" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C68" s="311" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D68" s="316" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E68" s="316" t="s">
+        <v>1261</v>
+      </c>
+      <c r="F68" s="317"/>
+      <c r="G68" s="317"/>
+      <c r="H68" s="317"/>
+      <c r="I68" s="317"/>
+      <c r="J68" s="317"/>
+      <c r="K68" s="317"/>
+      <c r="L68" s="317"/>
+    </row>
+    <row r="69" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="459" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B69" s="459"/>
+      <c r="C69" s="459"/>
+      <c r="D69" s="459"/>
+      <c r="E69" s="459"/>
+      <c r="F69" s="459"/>
+      <c r="G69" s="459"/>
+      <c r="H69" s="459"/>
+      <c r="I69" s="459"/>
+      <c r="J69" s="459"/>
+      <c r="K69" s="459"/>
+      <c r="L69" s="459"/>
+    </row>
+    <row r="70" spans="1:12" s="338" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="334" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B70" s="335" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C70" s="336" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D70" s="335" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E70" s="335" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F70" s="337"/>
+      <c r="G70" s="337"/>
+      <c r="H70" s="337"/>
+      <c r="I70" s="337"/>
+      <c r="J70" s="337"/>
+      <c r="K70" s="337"/>
+      <c r="L70" s="337"/>
+    </row>
+    <row r="71" spans="1:12" s="343" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="339" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B71" s="340" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C71" s="341" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D71" s="340" t="s">
+        <v>1409</v>
+      </c>
+      <c r="E71" s="340" t="s">
+        <v>1410</v>
+      </c>
+      <c r="F71" s="342"/>
+      <c r="G71" s="342"/>
+      <c r="H71" s="342"/>
+      <c r="I71" s="342"/>
+      <c r="J71" s="344" t="s">
+        <v>1411</v>
+      </c>
+      <c r="K71" s="342"/>
+      <c r="L71" s="342"/>
+    </row>
+    <row r="72" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="27" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B72" s="306" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C72" s="311" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D72" s="316" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E72" s="306" t="s">
+        <v>1267</v>
+      </c>
+      <c r="F72" s="317"/>
+      <c r="G72" s="317"/>
+      <c r="H72" s="317"/>
+      <c r="I72" s="317"/>
+      <c r="J72" s="317"/>
+      <c r="K72" s="317"/>
+      <c r="L72" s="317"/>
+    </row>
+    <row r="73" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="27" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B73" s="306" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C73" s="311" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D73" s="316" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E73" s="306" t="s">
+        <v>1270</v>
+      </c>
+      <c r="F73" s="317"/>
+      <c r="G73" s="317"/>
+      <c r="H73" s="317"/>
+      <c r="I73" s="317"/>
+      <c r="J73" s="317"/>
+      <c r="K73" s="317"/>
+      <c r="L73" s="317"/>
+    </row>
+    <row r="74" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="27" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B74" s="306" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C74" s="311" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D74" s="316" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E74" s="306" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F74" s="317"/>
+      <c r="G74" s="317"/>
+      <c r="H74" s="317"/>
+      <c r="I74" s="317"/>
+      <c r="J74" s="317"/>
+      <c r="K74" s="317"/>
+      <c r="L74" s="317"/>
+    </row>
+    <row r="75" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="459" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B75" s="459"/>
+      <c r="C75" s="459"/>
+      <c r="D75" s="459"/>
+      <c r="E75" s="459"/>
+      <c r="F75" s="459"/>
+      <c r="G75" s="459"/>
+      <c r="H75" s="459"/>
+      <c r="I75" s="459"/>
+      <c r="J75" s="459"/>
+      <c r="K75" s="459"/>
+      <c r="L75" s="459"/>
+    </row>
+    <row r="76" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="27" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B76" s="316" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C76" s="311" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D76" s="316" t="s">
+        <v>1275</v>
+      </c>
+      <c r="E76" s="306" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F76" s="317"/>
+      <c r="G76" s="317"/>
+      <c r="H76" s="317"/>
+      <c r="I76" s="317"/>
+      <c r="J76" s="317"/>
+      <c r="K76" s="317"/>
+      <c r="L76" s="317"/>
+    </row>
+    <row r="77" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="27" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B77" s="306" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C77" s="311" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D77" s="316" t="s">
+        <v>1278</v>
+      </c>
+      <c r="E77" s="306" t="s">
+        <v>1279</v>
+      </c>
+      <c r="F77" s="317"/>
+      <c r="G77" s="317"/>
+      <c r="H77" s="317"/>
+      <c r="I77" s="317"/>
+      <c r="J77" s="317"/>
+      <c r="K77" s="317"/>
+      <c r="L77" s="317"/>
+    </row>
+    <row r="78" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="27" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B78" s="306" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C78" s="311" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D78" s="316" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E78" s="306" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F78" s="317"/>
+      <c r="G78" s="317"/>
+      <c r="H78" s="317"/>
+      <c r="I78" s="317"/>
+      <c r="J78" s="317"/>
+      <c r="K78" s="317"/>
+      <c r="L78" s="317"/>
+    </row>
+    <row r="79" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="459" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B79" s="459"/>
+      <c r="C79" s="459"/>
+      <c r="D79" s="459"/>
+      <c r="E79" s="459"/>
+      <c r="F79" s="459"/>
+      <c r="G79" s="459"/>
+      <c r="H79" s="459"/>
+      <c r="I79" s="459"/>
+      <c r="J79" s="459"/>
+      <c r="K79" s="459"/>
+      <c r="L79" s="459"/>
+    </row>
+    <row r="80" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="27" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B80" s="316" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C80" s="311" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D80" s="316" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E80" s="306" t="s">
+        <v>1285</v>
+      </c>
+      <c r="F80" s="317"/>
+      <c r="G80" s="317"/>
+      <c r="H80" s="317"/>
+      <c r="I80" s="317"/>
+      <c r="J80" s="317"/>
+      <c r="K80" s="317"/>
+      <c r="L80" s="317"/>
+    </row>
+    <row r="81" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="27" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B81" s="306" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C81" s="311" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D81" s="316" t="s">
+        <v>1287</v>
+      </c>
+      <c r="E81" s="306" t="s">
+        <v>1288</v>
+      </c>
+      <c r="F81" s="317"/>
+      <c r="G81" s="317"/>
+      <c r="H81" s="317"/>
+      <c r="I81" s="317"/>
+      <c r="J81" s="317"/>
+      <c r="K81" s="317"/>
+      <c r="L81" s="317"/>
+    </row>
+    <row r="82" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="27" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B82" s="306" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C82" s="311" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D82" s="316" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E82" s="306" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F82" s="317"/>
+      <c r="G82" s="317"/>
+      <c r="H82" s="317"/>
+      <c r="I82" s="317"/>
+      <c r="J82" s="317"/>
+      <c r="K82" s="317"/>
+      <c r="L82" s="317"/>
+    </row>
+    <row r="83" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="27" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B83" s="306" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C83" s="311" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D83" s="316" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E83" s="316" t="s">
+        <v>1292</v>
+      </c>
+      <c r="F83" s="317"/>
+      <c r="G83" s="317"/>
+      <c r="H83" s="317"/>
+      <c r="I83" s="317"/>
+      <c r="J83" s="317"/>
+      <c r="K83" s="317"/>
+      <c r="L83" s="317"/>
+    </row>
+    <row r="84" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="459" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B84" s="459"/>
+      <c r="C84" s="459"/>
+      <c r="D84" s="459"/>
+      <c r="E84" s="459"/>
+      <c r="F84" s="459"/>
+      <c r="G84" s="459"/>
+      <c r="H84" s="459"/>
+      <c r="I84" s="459"/>
+      <c r="J84" s="459"/>
+      <c r="K84" s="459"/>
+      <c r="L84" s="459"/>
+    </row>
+    <row r="85" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="27" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B85" s="316" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C85" s="311" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D85" s="316" t="s">
+        <v>1294</v>
+      </c>
+      <c r="E85" s="306" t="s">
+        <v>1295</v>
+      </c>
+      <c r="F85" s="317"/>
+      <c r="G85" s="317"/>
+      <c r="H85" s="317"/>
+      <c r="I85" s="317"/>
+      <c r="J85" s="317"/>
+      <c r="K85" s="317"/>
+      <c r="L85" s="317"/>
+    </row>
+    <row r="86" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="27" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B86" s="306" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C86" s="311" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D86" s="316" t="s">
+        <v>1297</v>
+      </c>
+      <c r="E86" s="316" t="s">
+        <v>1298</v>
+      </c>
+      <c r="F86" s="317"/>
+      <c r="G86" s="317"/>
+      <c r="H86" s="317"/>
+      <c r="I86" s="317"/>
+      <c r="J86" s="317"/>
+      <c r="K86" s="317"/>
+      <c r="L86" s="317"/>
+    </row>
+    <row r="87" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="459" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B87" s="459"/>
+      <c r="C87" s="459"/>
+      <c r="D87" s="459"/>
+      <c r="E87" s="459"/>
+      <c r="F87" s="459"/>
+      <c r="G87" s="459"/>
+      <c r="H87" s="459"/>
+      <c r="I87" s="459"/>
+      <c r="J87" s="459"/>
+      <c r="K87" s="459"/>
+      <c r="L87" s="459"/>
+    </row>
+    <row r="88" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="27" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B88" s="316" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C88" s="311" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D88" s="316" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E88" s="306" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F88" s="317"/>
+      <c r="G88" s="317"/>
+      <c r="H88" s="317"/>
+      <c r="I88" s="317"/>
+      <c r="J88" s="317"/>
+      <c r="K88" s="317"/>
+      <c r="L88" s="317"/>
+    </row>
+    <row r="89" spans="1:12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="27" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B89" s="306" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C89" s="311" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D89" s="316" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E89" s="306" t="s">
+        <v>1362</v>
+      </c>
+      <c r="F89" s="317"/>
+      <c r="G89" s="317"/>
+      <c r="H89" s="317"/>
+      <c r="I89" s="317"/>
+      <c r="J89" s="317"/>
+      <c r="K89" s="317"/>
+      <c r="L89" s="317"/>
+    </row>
+    <row r="90" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="27" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B90" s="306" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C90" s="311" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D90" s="316" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E90" s="306" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F90" s="317"/>
+      <c r="G90" s="317"/>
+      <c r="H90" s="317"/>
+      <c r="I90" s="317"/>
+      <c r="J90" s="317"/>
+      <c r="K90" s="317"/>
+      <c r="L90" s="317"/>
+    </row>
+    <row r="91" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="27" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B91" s="306" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C91" s="311" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D91" s="316" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E91" s="306" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F91" s="317"/>
+      <c r="G91" s="317"/>
+      <c r="H91" s="317"/>
+      <c r="I91" s="317"/>
+      <c r="J91" s="317"/>
+      <c r="K91" s="317"/>
+      <c r="L91" s="317"/>
+    </row>
+    <row r="92" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="459" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B92" s="459"/>
+      <c r="C92" s="459"/>
+      <c r="D92" s="459"/>
+      <c r="E92" s="459"/>
+      <c r="F92" s="459"/>
+      <c r="G92" s="459"/>
+      <c r="H92" s="459"/>
+      <c r="I92" s="459"/>
+      <c r="J92" s="459"/>
+      <c r="K92" s="459"/>
+      <c r="L92" s="459"/>
+    </row>
+    <row r="93" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="27" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B93" s="316" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C93" s="311" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D93" s="316" t="s">
+        <v>1308</v>
+      </c>
+      <c r="E93" s="306" t="s">
+        <v>1309</v>
+      </c>
+      <c r="F93" s="317"/>
+      <c r="G93" s="317"/>
+      <c r="H93" s="317"/>
+      <c r="I93" s="317"/>
+      <c r="J93" s="317"/>
+      <c r="K93" s="317"/>
+      <c r="L93" s="317"/>
+    </row>
+    <row r="94" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="27" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B94" s="306" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C94" s="311" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D94" s="316" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E94" s="316" t="s">
+        <v>1312</v>
+      </c>
+      <c r="F94" s="317"/>
+      <c r="G94" s="317"/>
+      <c r="H94" s="317"/>
+      <c r="I94" s="317"/>
+      <c r="J94" s="317"/>
+      <c r="K94" s="317"/>
+      <c r="L94" s="317"/>
+    </row>
+    <row r="95" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="27" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B95" s="306" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C95" s="311" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D95" s="316" t="s">
+        <v>1314</v>
+      </c>
+      <c r="E95" s="316" t="s">
+        <v>1315</v>
+      </c>
+      <c r="F95" s="317"/>
+      <c r="G95" s="317"/>
+      <c r="H95" s="317"/>
+      <c r="I95" s="317"/>
+      <c r="J95" s="317"/>
+      <c r="K95" s="317"/>
+      <c r="L95" s="317"/>
+    </row>
+    <row r="96" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="459" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B96" s="459"/>
+      <c r="C96" s="459"/>
+      <c r="D96" s="459"/>
+      <c r="E96" s="459"/>
+      <c r="F96" s="459"/>
+      <c r="G96" s="459"/>
+      <c r="H96" s="459"/>
+      <c r="I96" s="459"/>
+      <c r="J96" s="459"/>
+      <c r="K96" s="459"/>
+      <c r="L96" s="459"/>
+    </row>
+    <row r="97" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="27" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B97" s="316" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C97" s="311" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D97" s="316" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E97" s="306" t="s">
+        <v>1319</v>
+      </c>
+      <c r="F97" s="317"/>
+      <c r="G97" s="317"/>
+      <c r="H97" s="317"/>
+      <c r="I97" s="317"/>
+      <c r="J97" s="317"/>
+      <c r="K97" s="317"/>
+      <c r="L97" s="317"/>
+    </row>
+    <row r="98" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="27" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B98" s="316" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C98" s="311" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D98" s="316" t="s">
+        <v>1320</v>
+      </c>
+      <c r="E98" s="306" t="s">
+        <v>1319</v>
+      </c>
+      <c r="F98" s="317"/>
+      <c r="G98" s="317"/>
+      <c r="H98" s="317"/>
+      <c r="I98" s="317"/>
+      <c r="J98" s="317"/>
+      <c r="K98" s="317"/>
+      <c r="L98" s="317"/>
+    </row>
+    <row r="99" spans="1:12" s="347" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="345"/>
+      <c r="B99" s="346"/>
+      <c r="C99" s="346"/>
+      <c r="D99" s="346"/>
+      <c r="E99" s="346"/>
+      <c r="F99" s="346"/>
+      <c r="G99" s="346"/>
+      <c r="H99" s="346"/>
+      <c r="I99" s="346"/>
+      <c r="J99" s="346"/>
+      <c r="K99" s="346"/>
+      <c r="L99" s="346"/>
+    </row>
+    <row r="100" spans="1:12" s="352" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="348" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B100" s="349" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C100" s="350" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D100" s="349" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E100" s="349" t="s">
+        <v>1413</v>
+      </c>
+      <c r="F100" s="351"/>
+      <c r="G100" s="351"/>
+      <c r="H100" s="351"/>
+      <c r="I100" s="351"/>
+      <c r="J100" s="351"/>
+      <c r="K100" s="351"/>
+      <c r="L100" s="351"/>
+    </row>
+    <row r="101" spans="1:12" s="357" customFormat="1" ht="158.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="348" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B101" s="353" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C101" s="354" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D101" s="353" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E101" s="353" t="s">
+        <v>1416</v>
+      </c>
+      <c r="F101" s="355"/>
+      <c r="G101" s="355"/>
+      <c r="H101" s="355"/>
+      <c r="I101" s="355"/>
+      <c r="J101" s="356"/>
+      <c r="K101" s="355"/>
+      <c r="L101" s="355"/>
+    </row>
+    <row r="102" spans="1:12" s="352" customFormat="1" ht="130.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="348" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B102" s="349" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C102" s="350" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D102" s="349" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E102" s="349" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F102" s="351"/>
+      <c r="G102" s="351"/>
+      <c r="H102" s="351"/>
+      <c r="I102" s="351"/>
+      <c r="J102" s="351"/>
+      <c r="K102" s="351"/>
+      <c r="L102" s="351"/>
+    </row>
+    <row r="103" spans="1:12" s="352" customFormat="1" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="348" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B103" s="358" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C103" s="359" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D103" s="358" t="s">
+        <v>1420</v>
+      </c>
+      <c r="E103" s="358" t="s">
+        <v>1421</v>
+      </c>
+      <c r="F103" s="360"/>
+      <c r="G103" s="360"/>
+      <c r="H103" s="360"/>
+      <c r="I103" s="360"/>
+      <c r="J103" s="360"/>
+      <c r="K103" s="360"/>
+      <c r="L103" s="360"/>
+    </row>
+    <row r="104" spans="1:12" s="352" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="348" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B104" s="358" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C104" s="359" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D104" s="358" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E104" s="358" t="s">
+        <v>1424</v>
+      </c>
+      <c r="F104" s="360"/>
+      <c r="G104" s="360"/>
+      <c r="H104" s="360"/>
+      <c r="I104" s="360"/>
+      <c r="J104" s="360"/>
+      <c r="K104" s="360"/>
+      <c r="L104" s="360"/>
+    </row>
+    <row r="105" spans="1:12" s="321" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="463" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B105" s="463"/>
+      <c r="C105" s="463"/>
+      <c r="D105" s="463"/>
+      <c r="E105" s="463"/>
+      <c r="F105" s="463"/>
+      <c r="G105" s="463"/>
+      <c r="H105" s="463"/>
+      <c r="I105" s="463"/>
+      <c r="J105" s="463"/>
+      <c r="K105" s="463"/>
+      <c r="L105" s="463"/>
+    </row>
+    <row r="106" spans="1:12" s="321" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="322" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B106" s="323" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C106" s="324" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D106" s="323" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E106" s="323" t="s">
+        <v>1323</v>
+      </c>
+      <c r="F106" s="325"/>
+      <c r="G106" s="325"/>
+      <c r="H106" s="325"/>
+      <c r="I106" s="325"/>
+      <c r="J106" s="325"/>
+      <c r="K106" s="325"/>
+      <c r="L106" s="325"/>
+    </row>
+    <row r="107" spans="1:12" s="321" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="322" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B107" s="323" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C107" s="324" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D107" s="323" t="s">
+        <v>1325</v>
+      </c>
+      <c r="E107" s="323" t="s">
+        <v>1326</v>
+      </c>
+      <c r="G107" s="325"/>
+      <c r="H107" s="325"/>
+      <c r="I107" s="325"/>
+      <c r="J107" s="325"/>
+      <c r="K107" s="325"/>
+      <c r="L107" s="325"/>
+    </row>
+    <row r="108" spans="1:12" s="321" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="322" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B108" s="326" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C108" s="324" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D108" s="323" t="s">
+        <v>1328</v>
+      </c>
+      <c r="E108" s="323" t="s">
+        <v>1329</v>
+      </c>
+      <c r="F108" s="325"/>
+      <c r="G108" s="325"/>
+      <c r="H108" s="325"/>
+      <c r="I108" s="325"/>
+      <c r="J108" s="325"/>
+      <c r="K108" s="325"/>
+      <c r="L108" s="325"/>
+    </row>
+    <row r="109" spans="1:12" s="321" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="322" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B109" s="323" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C109" s="324" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D109" s="323" t="s">
+        <v>1331</v>
+      </c>
+      <c r="E109" s="323" t="s">
+        <v>1332</v>
+      </c>
+      <c r="F109" s="325"/>
+      <c r="G109" s="325"/>
+      <c r="H109" s="325"/>
+      <c r="I109" s="325"/>
+      <c r="J109" s="325"/>
+      <c r="K109" s="325"/>
+      <c r="L109" s="325"/>
+    </row>
+    <row r="110" spans="1:12" s="321" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="322" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B110" s="326" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C110" s="324" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D110" s="323" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E110" s="323" t="s">
+        <v>1334</v>
+      </c>
+      <c r="F110" s="323"/>
+      <c r="G110" s="325"/>
+      <c r="H110" s="325"/>
+      <c r="I110" s="325"/>
+      <c r="J110" s="325"/>
+      <c r="K110" s="325"/>
+      <c r="L110" s="325"/>
+    </row>
+    <row r="111" spans="1:12" s="321" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="327" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B111" s="325"/>
+      <c r="C111" s="325"/>
+      <c r="D111" s="325"/>
+      <c r="E111" s="325"/>
+      <c r="F111" s="325"/>
+      <c r="G111" s="325"/>
+      <c r="H111" s="325"/>
+      <c r="I111" s="325"/>
+      <c r="J111" s="325"/>
+      <c r="K111" s="325"/>
+      <c r="L111" s="325"/>
+    </row>
+    <row r="112" spans="1:12" s="321" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="322" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B112" s="323" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C112" s="324" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D112" s="323" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E112" s="323" t="s">
+        <v>1339</v>
+      </c>
+      <c r="F112" s="323"/>
+      <c r="G112" s="325"/>
+      <c r="H112" s="325"/>
+      <c r="I112" s="325"/>
+      <c r="J112" s="325"/>
+      <c r="K112" s="325"/>
+      <c r="L112" s="325"/>
+    </row>
+    <row r="113" spans="1:12" s="321" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="322" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B113" s="323" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C113" s="324" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D113" s="323" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E113" s="323" t="s">
+        <v>1288</v>
+      </c>
+      <c r="F113" s="325"/>
+      <c r="G113" s="325"/>
+      <c r="H113" s="325"/>
+      <c r="I113" s="325"/>
+      <c r="J113" s="325"/>
+      <c r="K113" s="325"/>
+      <c r="L113" s="325"/>
+    </row>
+    <row r="114" spans="1:12" s="321" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="322" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B114" s="323" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C114" s="324" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D114" s="323" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E114" s="328" t="s">
+        <v>1344</v>
+      </c>
+      <c r="F114" s="325"/>
+      <c r="G114" s="325"/>
+      <c r="H114" s="325"/>
+      <c r="I114" s="325"/>
+      <c r="J114" s="325"/>
+      <c r="K114" s="325"/>
+      <c r="L114" s="325"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="A55:L55"/>
+    <mergeCell ref="A58:L58"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="A61:L61"/>
+    <mergeCell ref="A64:L64"/>
+    <mergeCell ref="A105:L105"/>
+    <mergeCell ref="A75:L75"/>
+    <mergeCell ref="A79:L79"/>
+    <mergeCell ref="A84:L84"/>
+    <mergeCell ref="A87:L87"/>
+    <mergeCell ref="A92:L92"/>
+    <mergeCell ref="A96:L96"/>
+    <mergeCell ref="A69:L69"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M71"/>
@@ -36430,7 +39605,7 @@
       <c r="D36" s="47" t="s">
         <v>214</v>
       </c>
-      <c r="E36" s="436" t="s">
+      <c r="E36" s="443" t="s">
         <v>215</v>
       </c>
       <c r="F36" s="63"/>
@@ -36453,7 +39628,7 @@
       <c r="D37" s="47" t="s">
         <v>217</v>
       </c>
-      <c r="E37" s="437"/>
+      <c r="E37" s="444"/>
       <c r="F37" s="63"/>
       <c r="G37" s="63"/>
       <c r="H37" s="63"/>
@@ -40386,8 +43561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B98" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D112" sqref="D111:D112"/>
+    <sheetView topLeftCell="B98" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -42583,26 +45758,26 @@
       <c r="J104" s="410"/>
       <c r="K104" s="410"/>
     </row>
-    <row r="105" spans="1:11" s="471" customFormat="1" ht="101.25" x14ac:dyDescent="0.15">
-      <c r="A105" s="465" t="s">
+    <row r="105" spans="1:11" s="442" customFormat="1" ht="101.25" x14ac:dyDescent="0.15">
+      <c r="A105" s="436" t="s">
         <v>2009</v>
       </c>
-      <c r="B105" s="466" t="s">
+      <c r="B105" s="437" t="s">
         <v>1793</v>
       </c>
-      <c r="C105" s="467" t="s">
+      <c r="C105" s="438" t="s">
         <v>2083</v>
       </c>
-      <c r="D105" s="468" t="s">
+      <c r="D105" s="439" t="s">
         <v>2113</v>
       </c>
-      <c r="E105" s="469"/>
-      <c r="F105" s="469"/>
-      <c r="G105" s="469"/>
-      <c r="H105" s="469"/>
-      <c r="I105" s="469"/>
-      <c r="J105" s="470"/>
-      <c r="K105" s="470"/>
+      <c r="E105" s="440"/>
+      <c r="F105" s="440"/>
+      <c r="G105" s="440"/>
+      <c r="H105" s="440"/>
+      <c r="I105" s="440"/>
+      <c r="J105" s="441"/>
+      <c r="K105" s="441"/>
     </row>
     <row r="106" spans="1:11" s="411" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="405" t="s">
@@ -47445,10 +50620,627 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.875" style="472" customWidth="1"/>
+    <col min="2" max="2" width="30" style="472" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.25" style="472" customWidth="1"/>
+    <col min="4" max="4" width="49.375" style="472" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="472" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.125" style="472" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="472" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.125" style="472" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.375" style="472" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.25" style="472" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.375" style="472" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.125" style="472" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="14.125" style="472"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="127" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="482" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="482" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="482" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="483" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="483" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="483" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="483" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" s="483" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1" s="33" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="132" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="484" t="s">
+        <v>640</v>
+      </c>
+      <c r="B2" s="485"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+    </row>
+    <row r="3" spans="1:11" s="143" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="486" t="s">
+        <v>2155</v>
+      </c>
+      <c r="B3" s="487" t="s">
+        <v>2125</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="154" t="s">
+        <v>2126</v>
+      </c>
+      <c r="E3" s="155"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="155"/>
+    </row>
+    <row r="4" spans="1:11" s="143" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="486" t="s">
+        <v>2156</v>
+      </c>
+      <c r="B4" s="487" t="s">
+        <v>2127</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="154" t="s">
+        <v>2128</v>
+      </c>
+      <c r="E4" s="155"/>
+      <c r="F4" s="155"/>
+      <c r="G4" s="155"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="155"/>
+      <c r="J4" s="155"/>
+    </row>
+    <row r="5" spans="1:11" s="143" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="486" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B5" s="487" t="s">
+        <v>2129</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="154" t="s">
+        <v>2130</v>
+      </c>
+      <c r="E5" s="155"/>
+      <c r="F5" s="155"/>
+      <c r="G5" s="155"/>
+      <c r="H5" s="155"/>
+      <c r="I5" s="155"/>
+      <c r="J5" s="155"/>
+    </row>
+    <row r="6" spans="1:11" s="143" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="486" t="s">
+        <v>2158</v>
+      </c>
+      <c r="B6" s="154" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="154" t="s">
+        <v>2132</v>
+      </c>
+      <c r="E6" s="155"/>
+      <c r="F6" s="155"/>
+      <c r="G6" s="155"/>
+      <c r="H6" s="155"/>
+      <c r="I6" s="155"/>
+      <c r="J6" s="155"/>
+    </row>
+    <row r="7" spans="1:11" s="143" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="486" t="s">
+        <v>2159</v>
+      </c>
+      <c r="B7" s="154" t="s">
+        <v>2133</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="154" t="s">
+        <v>2134</v>
+      </c>
+      <c r="E7" s="155"/>
+      <c r="F7" s="155"/>
+      <c r="G7" s="155"/>
+      <c r="H7" s="155"/>
+      <c r="I7" s="155"/>
+      <c r="J7" s="155"/>
+    </row>
+    <row r="8" spans="1:11" s="143" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="486" t="s">
+        <v>2160</v>
+      </c>
+      <c r="B8" s="154" t="s">
+        <v>2135</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="154" t="s">
+        <v>2136</v>
+      </c>
+      <c r="E8" s="155"/>
+      <c r="F8" s="155"/>
+      <c r="G8" s="155"/>
+      <c r="H8" s="155"/>
+      <c r="I8" s="155"/>
+      <c r="J8" s="155"/>
+    </row>
+    <row r="9" spans="1:11" s="143" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="486" t="s">
+        <v>2161</v>
+      </c>
+      <c r="B9" s="154" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="154" t="s">
+        <v>2138</v>
+      </c>
+      <c r="E9" s="155"/>
+      <c r="F9" s="155"/>
+      <c r="G9" s="155"/>
+      <c r="H9" s="155"/>
+      <c r="I9" s="155"/>
+      <c r="J9" s="155"/>
+    </row>
+    <row r="10" spans="1:11" s="143" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="486" t="s">
+        <v>2162</v>
+      </c>
+      <c r="B10" s="154" t="s">
+        <v>2139</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="154" t="s">
+        <v>2140</v>
+      </c>
+      <c r="E10" s="155"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="155"/>
+      <c r="H10" s="155"/>
+      <c r="I10" s="155"/>
+      <c r="J10" s="155"/>
+    </row>
+    <row r="11" spans="1:11" s="143" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="486" t="s">
+        <v>2163</v>
+      </c>
+      <c r="B11" s="154" t="s">
+        <v>2141</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="154" t="s">
+        <v>2142</v>
+      </c>
+      <c r="E11" s="155"/>
+      <c r="F11" s="155"/>
+      <c r="G11" s="155"/>
+      <c r="H11" s="155"/>
+      <c r="I11" s="155"/>
+      <c r="J11" s="155"/>
+    </row>
+    <row r="12" spans="1:11" s="143" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="486" t="s">
+        <v>2164</v>
+      </c>
+      <c r="B12" s="154" t="s">
+        <v>2143</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="154" t="s">
+        <v>2144</v>
+      </c>
+      <c r="E12" s="155"/>
+      <c r="F12" s="155"/>
+      <c r="G12" s="155"/>
+      <c r="H12" s="155"/>
+      <c r="I12" s="155"/>
+      <c r="J12" s="155"/>
+    </row>
+    <row r="13" spans="1:11" s="132" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="484" t="s">
+        <v>641</v>
+      </c>
+      <c r="B13" s="485"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="131"/>
+      <c r="K13" s="131"/>
+    </row>
+    <row r="14" spans="1:11" s="143" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="486" t="s">
+        <v>2165</v>
+      </c>
+      <c r="B14" s="487" t="s">
+        <v>2125</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="154" t="s">
+        <v>2145</v>
+      </c>
+      <c r="E14" s="155"/>
+      <c r="F14" s="155"/>
+      <c r="G14" s="155"/>
+      <c r="H14" s="155"/>
+      <c r="I14" s="155"/>
+      <c r="J14" s="155"/>
+    </row>
+    <row r="15" spans="1:11" s="143" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="486" t="s">
+        <v>2166</v>
+      </c>
+      <c r="B15" s="487" t="s">
+        <v>2146</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="154" t="s">
+        <v>2147</v>
+      </c>
+      <c r="E15" s="155"/>
+      <c r="F15" s="155"/>
+      <c r="G15" s="155"/>
+      <c r="H15" s="155"/>
+      <c r="I15" s="155"/>
+      <c r="J15" s="155"/>
+    </row>
+    <row r="16" spans="1:11" s="143" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="486" t="s">
+        <v>2167</v>
+      </c>
+      <c r="B16" s="487" t="s">
+        <v>2148</v>
+      </c>
+      <c r="C16" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="154" t="s">
+        <v>2149</v>
+      </c>
+      <c r="E16" s="155"/>
+      <c r="F16" s="155"/>
+      <c r="G16" s="155"/>
+      <c r="H16" s="155"/>
+      <c r="I16" s="155"/>
+      <c r="J16" s="155"/>
+    </row>
+    <row r="17" spans="1:11" s="143" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="486" t="s">
+        <v>2168</v>
+      </c>
+      <c r="B17" s="154" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C17" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="154" t="s">
+        <v>2132</v>
+      </c>
+      <c r="E17" s="155"/>
+      <c r="F17" s="155"/>
+      <c r="G17" s="155"/>
+      <c r="H17" s="155"/>
+      <c r="I17" s="155"/>
+      <c r="J17" s="155"/>
+    </row>
+    <row r="18" spans="1:11" s="143" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="486" t="s">
+        <v>2169</v>
+      </c>
+      <c r="B18" s="154" t="s">
+        <v>2133</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="154" t="s">
+        <v>2134</v>
+      </c>
+      <c r="E18" s="155"/>
+      <c r="F18" s="155"/>
+      <c r="G18" s="155"/>
+      <c r="H18" s="155"/>
+      <c r="I18" s="155"/>
+      <c r="J18" s="155"/>
+    </row>
+    <row r="19" spans="1:11" s="143" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="486" t="s">
+        <v>2170</v>
+      </c>
+      <c r="B19" s="154" t="s">
+        <v>2135</v>
+      </c>
+      <c r="C19" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="154" t="s">
+        <v>2136</v>
+      </c>
+      <c r="E19" s="155"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="155"/>
+      <c r="H19" s="155"/>
+      <c r="I19" s="155"/>
+      <c r="J19" s="155"/>
+    </row>
+    <row r="20" spans="1:11" s="143" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="486" t="s">
+        <v>2171</v>
+      </c>
+      <c r="B20" s="154" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="154" t="s">
+        <v>2138</v>
+      </c>
+      <c r="E20" s="155"/>
+      <c r="F20" s="155"/>
+      <c r="G20" s="155"/>
+      <c r="H20" s="155"/>
+      <c r="I20" s="155"/>
+      <c r="J20" s="155"/>
+    </row>
+    <row r="21" spans="1:11" s="143" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="486" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B21" s="154" t="s">
+        <v>2139</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="154" t="s">
+        <v>2140</v>
+      </c>
+      <c r="E21" s="155"/>
+      <c r="F21" s="155"/>
+      <c r="G21" s="155"/>
+      <c r="H21" s="155"/>
+      <c r="I21" s="155"/>
+      <c r="J21" s="155"/>
+    </row>
+    <row r="22" spans="1:11" s="143" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="486" t="s">
+        <v>2173</v>
+      </c>
+      <c r="B22" s="154" t="s">
+        <v>2141</v>
+      </c>
+      <c r="C22" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="154" t="s">
+        <v>2142</v>
+      </c>
+      <c r="E22" s="155"/>
+      <c r="F22" s="155"/>
+      <c r="G22" s="155"/>
+      <c r="H22" s="155"/>
+      <c r="I22" s="155"/>
+      <c r="J22" s="155"/>
+    </row>
+    <row r="23" spans="1:11" s="143" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="486" t="s">
+        <v>2174</v>
+      </c>
+      <c r="B23" s="154" t="s">
+        <v>2143</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="154" t="s">
+        <v>2144</v>
+      </c>
+      <c r="E23" s="155"/>
+      <c r="F23" s="155"/>
+      <c r="G23" s="155"/>
+      <c r="H23" s="155"/>
+      <c r="I23" s="155"/>
+      <c r="J23" s="155"/>
+    </row>
+    <row r="24" spans="1:11" s="476" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="473" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B24" s="473"/>
+      <c r="C24" s="474"/>
+      <c r="D24" s="474"/>
+      <c r="E24" s="474"/>
+      <c r="F24" s="474"/>
+      <c r="G24" s="474"/>
+      <c r="H24" s="474"/>
+      <c r="I24" s="474"/>
+      <c r="J24" s="475"/>
+      <c r="K24" s="475"/>
+    </row>
+    <row r="25" spans="1:11" s="480" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="477" t="s">
+        <v>2175</v>
+      </c>
+      <c r="B25" s="478" t="s">
+        <v>2115</v>
+      </c>
+      <c r="C25" s="478" t="s">
+        <v>2116</v>
+      </c>
+      <c r="D25" s="478" t="s">
+        <v>630</v>
+      </c>
+      <c r="E25" s="479"/>
+      <c r="F25" s="479"/>
+      <c r="G25" s="479"/>
+      <c r="H25" s="479"/>
+      <c r="I25" s="479"/>
+      <c r="J25" s="479"/>
+      <c r="K25" s="479"/>
+    </row>
+    <row r="26" spans="1:11" s="481" customFormat="1" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="477" t="s">
+        <v>2176</v>
+      </c>
+      <c r="B26" s="478" t="s">
+        <v>2117</v>
+      </c>
+      <c r="C26" s="478" t="s">
+        <v>2116</v>
+      </c>
+      <c r="D26" s="478" t="s">
+        <v>2118</v>
+      </c>
+      <c r="E26" s="479"/>
+      <c r="F26" s="479"/>
+      <c r="G26" s="479"/>
+      <c r="H26" s="479"/>
+      <c r="I26" s="479"/>
+      <c r="J26" s="479"/>
+      <c r="K26" s="479"/>
+    </row>
+    <row r="27" spans="1:11" s="480" customFormat="1" ht="188.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="477" t="s">
+        <v>2177</v>
+      </c>
+      <c r="B27" s="478" t="s">
+        <v>2119</v>
+      </c>
+      <c r="C27" s="478" t="s">
+        <v>2116</v>
+      </c>
+      <c r="D27" s="478" t="s">
+        <v>629</v>
+      </c>
+      <c r="E27" s="479"/>
+      <c r="F27" s="479"/>
+      <c r="G27" s="479"/>
+      <c r="H27" s="479"/>
+      <c r="I27" s="479"/>
+      <c r="J27" s="479"/>
+      <c r="K27" s="479"/>
+    </row>
+    <row r="28" spans="1:11" s="124" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="124" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="481" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="477" t="s">
+        <v>2178</v>
+      </c>
+      <c r="B29" s="478" t="s">
+        <v>2121</v>
+      </c>
+      <c r="C29" s="478" t="s">
+        <v>2116</v>
+      </c>
+      <c r="D29" s="478" t="s">
+        <v>2122</v>
+      </c>
+      <c r="E29" s="479"/>
+      <c r="F29" s="479"/>
+      <c r="G29" s="479"/>
+      <c r="H29" s="479"/>
+      <c r="I29" s="479"/>
+      <c r="J29" s="479"/>
+      <c r="K29" s="479"/>
+    </row>
+    <row r="30" spans="1:11" s="481" customFormat="1" ht="170.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="477" t="s">
+        <v>2179</v>
+      </c>
+      <c r="B30" s="478" t="s">
+        <v>2123</v>
+      </c>
+      <c r="C30" s="478" t="s">
+        <v>2116</v>
+      </c>
+      <c r="D30" s="478" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A24:B24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -47493,10 +51285,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="438" t="s">
+      <c r="A2" s="445" t="s">
         <v>640</v>
       </c>
-      <c r="B2" s="438"/>
+      <c r="B2" s="445"/>
       <c r="C2" s="153"/>
       <c r="D2" s="153"/>
       <c r="E2" s="153"/>
@@ -47718,10 +51510,10 @@
       <c r="K12" s="155"/>
     </row>
     <row r="13" spans="1:11" s="132" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="438" t="s">
+      <c r="A13" s="445" t="s">
         <v>641</v>
       </c>
-      <c r="B13" s="438"/>
+      <c r="B13" s="445"/>
       <c r="C13" s="130"/>
       <c r="D13" s="130"/>
       <c r="E13" s="130"/>
@@ -47795,16 +51587,135 @@
       <c r="J16" s="155"/>
       <c r="K16" s="155"/>
     </row>
+    <row r="17" spans="1:11" s="476" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="473" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B17" s="473"/>
+      <c r="C17" s="474"/>
+      <c r="D17" s="474"/>
+      <c r="E17" s="474"/>
+      <c r="F17" s="474"/>
+      <c r="G17" s="474"/>
+      <c r="H17" s="474"/>
+      <c r="I17" s="474"/>
+      <c r="J17" s="475"/>
+      <c r="K17" s="475"/>
+    </row>
+    <row r="18" spans="1:11" s="480" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="477" t="s">
+        <v>2150</v>
+      </c>
+      <c r="B18" s="478" t="s">
+        <v>2115</v>
+      </c>
+      <c r="C18" s="478" t="s">
+        <v>2116</v>
+      </c>
+      <c r="D18" s="478" t="s">
+        <v>630</v>
+      </c>
+      <c r="E18" s="479"/>
+      <c r="F18" s="479"/>
+      <c r="G18" s="479"/>
+      <c r="H18" s="479"/>
+      <c r="I18" s="479"/>
+      <c r="J18" s="479"/>
+      <c r="K18" s="479"/>
+    </row>
+    <row r="19" spans="1:11" s="481" customFormat="1" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="477" t="s">
+        <v>2151</v>
+      </c>
+      <c r="B19" s="478" t="s">
+        <v>2117</v>
+      </c>
+      <c r="C19" s="478" t="s">
+        <v>2116</v>
+      </c>
+      <c r="D19" s="478" t="s">
+        <v>2118</v>
+      </c>
+      <c r="E19" s="479"/>
+      <c r="F19" s="479"/>
+      <c r="G19" s="479"/>
+      <c r="H19" s="479"/>
+      <c r="I19" s="479"/>
+      <c r="J19" s="479"/>
+      <c r="K19" s="479"/>
+    </row>
+    <row r="20" spans="1:11" s="480" customFormat="1" ht="188.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="477" t="s">
+        <v>2152</v>
+      </c>
+      <c r="B20" s="478" t="s">
+        <v>2119</v>
+      </c>
+      <c r="C20" s="478" t="s">
+        <v>2116</v>
+      </c>
+      <c r="D20" s="478" t="s">
+        <v>629</v>
+      </c>
+      <c r="E20" s="479"/>
+      <c r="F20" s="479"/>
+      <c r="G20" s="479"/>
+      <c r="H20" s="479"/>
+      <c r="I20" s="479"/>
+      <c r="J20" s="479"/>
+      <c r="K20" s="479"/>
+    </row>
+    <row r="21" spans="1:11" s="124" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="124" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="481" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="477" t="s">
+        <v>2153</v>
+      </c>
+      <c r="B22" s="478" t="s">
+        <v>2121</v>
+      </c>
+      <c r="C22" s="478" t="s">
+        <v>2116</v>
+      </c>
+      <c r="D22" s="478" t="s">
+        <v>2122</v>
+      </c>
+      <c r="E22" s="479"/>
+      <c r="F22" s="479"/>
+      <c r="G22" s="479"/>
+      <c r="H22" s="479"/>
+      <c r="I22" s="479"/>
+      <c r="J22" s="479"/>
+      <c r="K22" s="479"/>
+    </row>
+    <row r="23" spans="1:11" s="481" customFormat="1" ht="170.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="477" t="s">
+        <v>2154</v>
+      </c>
+      <c r="B23" s="478" t="s">
+        <v>2123</v>
+      </c>
+      <c r="C23" s="478" t="s">
+        <v>2116</v>
+      </c>
+      <c r="D23" s="478" t="s">
+        <v>2124</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A17:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N931"/>
   <sheetViews>
@@ -47832,98 +51743,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="449" t="s">
+      <c r="A1" s="458" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="448" t="s">
+      <c r="B1" s="446" t="s">
         <v>913</v>
       </c>
-      <c r="C1" s="448" t="s">
+      <c r="C1" s="446" t="s">
         <v>914</v>
       </c>
-      <c r="D1" s="448" t="s">
+      <c r="D1" s="446" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="448" t="s">
+      <c r="E1" s="446" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="448" t="s">
+      <c r="F1" s="446" t="s">
         <v>915</v>
       </c>
-      <c r="G1" s="448" t="s">
+      <c r="G1" s="446" t="s">
         <v>105</v>
       </c>
-      <c r="H1" s="448" t="s">
+      <c r="H1" s="446" t="s">
         <v>104</v>
       </c>
-      <c r="I1" s="448" t="s">
+      <c r="I1" s="446" t="s">
         <v>916</v>
       </c>
-      <c r="J1" s="448" t="s">
+      <c r="J1" s="446" t="s">
         <v>917</v>
       </c>
-      <c r="K1" s="448" t="s">
+      <c r="K1" s="446" t="s">
         <v>99</v>
       </c>
-      <c r="L1" s="448" t="s">
+      <c r="L1" s="446" t="s">
         <v>98</v>
       </c>
-      <c r="M1" s="439" t="s">
+      <c r="M1" s="455" t="s">
         <v>918</v>
       </c>
-      <c r="N1" s="441" t="s">
+      <c r="N1" s="456" t="s">
         <v>919</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="440"/>
-      <c r="B2" s="440"/>
-      <c r="C2" s="440"/>
-      <c r="D2" s="440"/>
-      <c r="E2" s="440"/>
-      <c r="F2" s="440"/>
-      <c r="G2" s="440"/>
-      <c r="H2" s="440"/>
-      <c r="I2" s="440"/>
-      <c r="J2" s="440"/>
-      <c r="K2" s="440"/>
-      <c r="L2" s="440"/>
-      <c r="M2" s="440"/>
-      <c r="N2" s="442"/>
+      <c r="A2" s="447"/>
+      <c r="B2" s="447"/>
+      <c r="C2" s="447"/>
+      <c r="D2" s="447"/>
+      <c r="E2" s="447"/>
+      <c r="F2" s="447"/>
+      <c r="G2" s="447"/>
+      <c r="H2" s="447"/>
+      <c r="I2" s="447"/>
+      <c r="J2" s="447"/>
+      <c r="K2" s="447"/>
+      <c r="L2" s="447"/>
+      <c r="M2" s="447"/>
+      <c r="N2" s="450"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="443" t="s">
+      <c r="A3" s="452" t="s">
         <v>920</v>
       </c>
-      <c r="B3" s="444"/>
-      <c r="C3" s="444"/>
-      <c r="D3" s="444"/>
-      <c r="E3" s="444"/>
-      <c r="F3" s="444"/>
-      <c r="G3" s="444"/>
-      <c r="H3" s="444"/>
-      <c r="I3" s="444"/>
-      <c r="J3" s="444"/>
-      <c r="K3" s="444"/>
-      <c r="L3" s="445"/>
+      <c r="B3" s="453"/>
+      <c r="C3" s="453"/>
+      <c r="D3" s="453"/>
+      <c r="E3" s="453"/>
+      <c r="F3" s="453"/>
+      <c r="G3" s="453"/>
+      <c r="H3" s="453"/>
+      <c r="I3" s="453"/>
+      <c r="J3" s="453"/>
+      <c r="K3" s="453"/>
+      <c r="L3" s="454"/>
       <c r="M3" s="163"/>
       <c r="N3" s="164"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="446" t="s">
+      <c r="A4" s="457" t="s">
         <v>921</v>
       </c>
-      <c r="B4" s="444"/>
-      <c r="C4" s="444"/>
-      <c r="D4" s="444"/>
-      <c r="E4" s="444"/>
-      <c r="F4" s="444"/>
-      <c r="G4" s="444"/>
-      <c r="H4" s="444"/>
-      <c r="I4" s="444"/>
-      <c r="J4" s="444"/>
-      <c r="K4" s="444"/>
-      <c r="L4" s="445"/>
+      <c r="B4" s="453"/>
+      <c r="C4" s="453"/>
+      <c r="D4" s="453"/>
+      <c r="E4" s="453"/>
+      <c r="F4" s="453"/>
+      <c r="G4" s="453"/>
+      <c r="H4" s="453"/>
+      <c r="I4" s="453"/>
+      <c r="J4" s="453"/>
+      <c r="K4" s="453"/>
+      <c r="L4" s="454"/>
       <c r="M4" s="165"/>
       <c r="N4" s="166"/>
     </row>
@@ -48095,20 +52006,20 @@
       <c r="N10" s="196"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="443" t="s">
+      <c r="A11" s="452" t="s">
         <v>944</v>
       </c>
-      <c r="B11" s="447"/>
-      <c r="C11" s="447"/>
-      <c r="D11" s="444"/>
-      <c r="E11" s="447"/>
-      <c r="F11" s="444"/>
-      <c r="G11" s="444"/>
-      <c r="H11" s="444"/>
-      <c r="I11" s="444"/>
-      <c r="J11" s="444"/>
-      <c r="K11" s="444"/>
-      <c r="L11" s="445"/>
+      <c r="B11" s="449"/>
+      <c r="C11" s="449"/>
+      <c r="D11" s="453"/>
+      <c r="E11" s="449"/>
+      <c r="F11" s="453"/>
+      <c r="G11" s="453"/>
+      <c r="H11" s="453"/>
+      <c r="I11" s="453"/>
+      <c r="J11" s="453"/>
+      <c r="K11" s="453"/>
+      <c r="L11" s="454"/>
       <c r="M11" s="163"/>
       <c r="N11" s="163"/>
     </row>
@@ -48169,20 +52080,20 @@
       <c r="N13" s="208"/>
     </row>
     <row r="14" spans="1:14" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="443" t="s">
+      <c r="A14" s="452" t="s">
         <v>952</v>
       </c>
-      <c r="B14" s="444"/>
-      <c r="C14" s="444"/>
-      <c r="D14" s="444"/>
-      <c r="E14" s="444"/>
-      <c r="F14" s="444"/>
-      <c r="G14" s="444"/>
-      <c r="H14" s="444"/>
-      <c r="I14" s="444"/>
-      <c r="J14" s="444"/>
-      <c r="K14" s="444"/>
-      <c r="L14" s="445"/>
+      <c r="B14" s="453"/>
+      <c r="C14" s="453"/>
+      <c r="D14" s="453"/>
+      <c r="E14" s="453"/>
+      <c r="F14" s="453"/>
+      <c r="G14" s="453"/>
+      <c r="H14" s="453"/>
+      <c r="I14" s="453"/>
+      <c r="J14" s="453"/>
+      <c r="K14" s="453"/>
+      <c r="L14" s="454"/>
       <c r="M14" s="207"/>
       <c r="N14" s="208"/>
     </row>
@@ -48243,20 +52154,20 @@
       <c r="N16" s="216"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="450" t="s">
+      <c r="A17" s="448" t="s">
         <v>958</v>
       </c>
-      <c r="B17" s="447"/>
-      <c r="C17" s="447"/>
-      <c r="D17" s="447"/>
-      <c r="E17" s="447"/>
-      <c r="F17" s="447"/>
-      <c r="G17" s="447"/>
-      <c r="H17" s="447"/>
-      <c r="I17" s="447"/>
-      <c r="J17" s="447"/>
-      <c r="K17" s="447"/>
-      <c r="L17" s="442"/>
+      <c r="B17" s="449"/>
+      <c r="C17" s="449"/>
+      <c r="D17" s="449"/>
+      <c r="E17" s="449"/>
+      <c r="F17" s="449"/>
+      <c r="G17" s="449"/>
+      <c r="H17" s="449"/>
+      <c r="I17" s="449"/>
+      <c r="J17" s="449"/>
+      <c r="K17" s="449"/>
+      <c r="L17" s="450"/>
       <c r="M17" s="217"/>
       <c r="N17" s="218"/>
     </row>
@@ -48576,17 +52487,17 @@
       <c r="A31" s="451" t="s">
         <v>997</v>
       </c>
-      <c r="B31" s="447"/>
-      <c r="C31" s="447"/>
-      <c r="D31" s="447"/>
-      <c r="E31" s="447"/>
-      <c r="F31" s="447"/>
-      <c r="G31" s="447"/>
-      <c r="H31" s="447"/>
-      <c r="I31" s="447"/>
-      <c r="J31" s="447"/>
-      <c r="K31" s="447"/>
-      <c r="L31" s="442"/>
+      <c r="B31" s="449"/>
+      <c r="C31" s="449"/>
+      <c r="D31" s="449"/>
+      <c r="E31" s="449"/>
+      <c r="F31" s="449"/>
+      <c r="G31" s="449"/>
+      <c r="H31" s="449"/>
+      <c r="I31" s="449"/>
+      <c r="J31" s="449"/>
+      <c r="K31" s="449"/>
+      <c r="L31" s="450"/>
       <c r="M31" s="256"/>
       <c r="N31" s="256"/>
     </row>
@@ -63050,11 +66961,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A17:L17"/>
-    <mergeCell ref="A31:L31"/>
-    <mergeCell ref="A14:L14"/>
-    <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="A4:L4"/>
@@ -63070,2616 +66976,13 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A17:L17"/>
+    <mergeCell ref="A31:L31"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="M1:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L114"/>
-  <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="25.25" style="271" customWidth="1"/>
-    <col min="2" max="2" width="19" style="271" customWidth="1"/>
-    <col min="3" max="3" width="26.875" style="271" customWidth="1"/>
-    <col min="4" max="4" width="39.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" style="271" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="271"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="458" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="460" t="s">
-        <v>107</v>
-      </c>
-      <c r="C1" s="460" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" s="461" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" s="461" t="s">
-        <v>915</v>
-      </c>
-      <c r="F1" s="460" t="s">
-        <v>104</v>
-      </c>
-      <c r="G1" s="460" t="s">
-        <v>916</v>
-      </c>
-      <c r="H1" s="460" t="s">
-        <v>917</v>
-      </c>
-      <c r="I1" s="460" t="s">
-        <v>99</v>
-      </c>
-      <c r="J1" s="460" t="s">
-        <v>98</v>
-      </c>
-      <c r="K1" s="463" t="s">
-        <v>918</v>
-      </c>
-      <c r="L1" s="456" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="459"/>
-      <c r="B2" s="459"/>
-      <c r="C2" s="459"/>
-      <c r="D2" s="462"/>
-      <c r="E2" s="462"/>
-      <c r="F2" s="459"/>
-      <c r="G2" s="459"/>
-      <c r="H2" s="459"/>
-      <c r="I2" s="459"/>
-      <c r="J2" s="459"/>
-      <c r="K2" s="459"/>
-      <c r="L2" s="457"/>
-    </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="272" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B3" s="273"/>
-      <c r="C3" s="273"/>
-      <c r="D3" s="302"/>
-      <c r="E3" s="302"/>
-      <c r="F3" s="273"/>
-      <c r="G3" s="273"/>
-      <c r="H3" s="273"/>
-      <c r="I3" s="273"/>
-      <c r="J3" s="274"/>
-      <c r="K3" s="275"/>
-      <c r="L3" s="276"/>
-    </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="277" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B4" s="278"/>
-      <c r="C4" s="278"/>
-      <c r="D4" s="303"/>
-      <c r="E4" s="303"/>
-      <c r="F4" s="278"/>
-      <c r="G4" s="278"/>
-      <c r="H4" s="278"/>
-      <c r="I4" s="278"/>
-      <c r="J4" s="279"/>
-      <c r="K4" s="280"/>
-      <c r="L4" s="281"/>
-    </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B5" s="282" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C5" s="283" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D5" s="304" t="s">
-        <v>1129</v>
-      </c>
-      <c r="E5" s="305" t="s">
-        <v>1130</v>
-      </c>
-      <c r="F5" s="284"/>
-      <c r="G5" s="284"/>
-      <c r="H5" s="285"/>
-      <c r="I5" s="286"/>
-      <c r="J5" s="284"/>
-      <c r="K5" s="287"/>
-      <c r="L5" s="288"/>
-    </row>
-    <row r="6" spans="1:12" s="291" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="27" t="s">
-        <v>1064</v>
-      </c>
-      <c r="B6" s="48" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C6" s="283" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D6" s="306" t="s">
-        <v>1131</v>
-      </c>
-      <c r="E6" s="306" t="s">
-        <v>1132</v>
-      </c>
-      <c r="F6" s="289"/>
-      <c r="G6" s="290"/>
-      <c r="H6" s="290"/>
-      <c r="I6" s="290"/>
-      <c r="J6" s="290"/>
-      <c r="K6" s="290"/>
-      <c r="L6" s="290"/>
-    </row>
-    <row r="7" spans="1:12" s="291" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="27" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B7" s="48" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C7" s="283" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D7" s="306" t="s">
-        <v>1133</v>
-      </c>
-      <c r="E7" s="306" t="s">
-        <v>1134</v>
-      </c>
-      <c r="F7" s="289"/>
-      <c r="G7" s="290"/>
-      <c r="H7" s="290"/>
-      <c r="I7" s="290"/>
-      <c r="J7" s="290"/>
-      <c r="K7" s="290"/>
-      <c r="L7" s="290"/>
-    </row>
-    <row r="8" spans="1:12" s="291" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="27" t="s">
-        <v>1066</v>
-      </c>
-      <c r="B8" s="48" t="s">
-        <v>1040</v>
-      </c>
-      <c r="C8" s="283" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D8" s="306" t="s">
-        <v>1135</v>
-      </c>
-      <c r="E8" s="306" t="s">
-        <v>1136</v>
-      </c>
-      <c r="F8" s="289"/>
-      <c r="G8" s="290"/>
-      <c r="H8" s="290"/>
-      <c r="I8" s="290"/>
-      <c r="J8" s="290"/>
-      <c r="K8" s="290"/>
-      <c r="L8" s="290"/>
-    </row>
-    <row r="9" spans="1:12" s="291" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="27" t="s">
-        <v>1067</v>
-      </c>
-      <c r="B9" s="48" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C9" s="283" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D9" s="306" t="s">
-        <v>1137</v>
-      </c>
-      <c r="E9" s="306" t="s">
-        <v>1132</v>
-      </c>
-      <c r="F9" s="289"/>
-      <c r="G9" s="290"/>
-      <c r="H9" s="290"/>
-      <c r="I9" s="290"/>
-      <c r="J9" s="290"/>
-      <c r="K9" s="290"/>
-      <c r="L9" s="290"/>
-    </row>
-    <row r="10" spans="1:12" s="291" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="27" t="s">
-        <v>1068</v>
-      </c>
-      <c r="B10" s="48" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C10" s="283" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D10" s="306" t="s">
-        <v>1138</v>
-      </c>
-      <c r="E10" s="306" t="s">
-        <v>1139</v>
-      </c>
-      <c r="F10" s="289"/>
-      <c r="G10" s="290"/>
-      <c r="H10" s="290"/>
-      <c r="I10" s="290"/>
-      <c r="J10" s="290"/>
-      <c r="K10" s="290"/>
-      <c r="L10" s="290"/>
-    </row>
-    <row r="11" spans="1:12" s="291" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="27" t="s">
-        <v>1069</v>
-      </c>
-      <c r="B11" s="48" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C11" s="283" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D11" s="306" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E11" s="306" t="s">
-        <v>1141</v>
-      </c>
-      <c r="F11" s="289"/>
-      <c r="G11" s="290"/>
-      <c r="H11" s="290"/>
-      <c r="I11" s="290"/>
-      <c r="J11" s="290"/>
-      <c r="K11" s="290"/>
-      <c r="L11" s="290"/>
-    </row>
-    <row r="12" spans="1:12" s="291" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="27" t="s">
-        <v>1070</v>
-      </c>
-      <c r="B12" s="48" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C12" s="283" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D12" s="306" t="s">
-        <v>1142</v>
-      </c>
-      <c r="E12" s="306" t="s">
-        <v>1143</v>
-      </c>
-      <c r="F12" s="289"/>
-      <c r="G12" s="290"/>
-      <c r="H12" s="290"/>
-      <c r="I12" s="290"/>
-      <c r="J12" s="290"/>
-      <c r="K12" s="290"/>
-      <c r="L12" s="290"/>
-    </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="27" t="s">
-        <v>1071</v>
-      </c>
-      <c r="B13" s="292" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C13" s="283" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D13" s="307" t="s">
-        <v>1144</v>
-      </c>
-      <c r="E13" s="308" t="s">
-        <v>1145</v>
-      </c>
-      <c r="F13" s="293"/>
-      <c r="G13" s="293"/>
-      <c r="H13" s="293"/>
-      <c r="I13" s="293"/>
-      <c r="J13" s="293"/>
-      <c r="K13" s="294"/>
-      <c r="L13" s="294"/>
-    </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="295" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B14" s="296"/>
-      <c r="C14" s="296"/>
-      <c r="D14" s="303"/>
-      <c r="E14" s="303"/>
-      <c r="F14" s="296"/>
-      <c r="G14" s="296"/>
-      <c r="H14" s="296"/>
-      <c r="I14" s="296"/>
-      <c r="J14" s="297"/>
-      <c r="K14" s="280"/>
-      <c r="L14" s="281"/>
-    </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="27" t="s">
-        <v>1072</v>
-      </c>
-      <c r="B15" s="298" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C15" s="283" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D15" s="309" t="s">
-        <v>1146</v>
-      </c>
-      <c r="E15" s="309" t="s">
-        <v>1147</v>
-      </c>
-      <c r="F15" s="299"/>
-      <c r="G15" s="299"/>
-      <c r="H15" s="299"/>
-      <c r="I15" s="299"/>
-      <c r="J15" s="299"/>
-      <c r="K15" s="299"/>
-      <c r="L15" s="299"/>
-    </row>
-    <row r="16" spans="1:12" s="291" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="27" t="s">
-        <v>1073</v>
-      </c>
-      <c r="B16" s="292" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C16" s="283" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D16" s="309" t="s">
-        <v>1148</v>
-      </c>
-      <c r="E16" s="306" t="s">
-        <v>1149</v>
-      </c>
-      <c r="F16" s="293"/>
-      <c r="G16" s="293"/>
-      <c r="H16" s="293"/>
-      <c r="I16" s="293"/>
-      <c r="J16" s="293"/>
-      <c r="K16" s="293"/>
-      <c r="L16" s="293"/>
-    </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="27" t="s">
-        <v>1074</v>
-      </c>
-      <c r="B17" s="298" t="s">
-        <v>1049</v>
-      </c>
-      <c r="C17" s="283" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D17" s="309" t="s">
-        <v>1150</v>
-      </c>
-      <c r="E17" s="310" t="s">
-        <v>1151</v>
-      </c>
-      <c r="F17" s="299"/>
-      <c r="G17" s="299"/>
-      <c r="H17" s="299"/>
-      <c r="I17" s="299"/>
-      <c r="J17" s="299"/>
-      <c r="K17" s="299"/>
-      <c r="L17" s="299"/>
-    </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="27" t="s">
-        <v>1075</v>
-      </c>
-      <c r="B18" s="298" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C18" s="283" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D18" s="309" t="s">
-        <v>1152</v>
-      </c>
-      <c r="E18" s="310" t="s">
-        <v>1153</v>
-      </c>
-      <c r="F18" s="299"/>
-      <c r="G18" s="299"/>
-      <c r="H18" s="299"/>
-      <c r="I18" s="299"/>
-      <c r="J18" s="299"/>
-      <c r="K18" s="299"/>
-      <c r="L18" s="299"/>
-    </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="27" t="s">
-        <v>1076</v>
-      </c>
-      <c r="B19" s="298" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C19" s="283" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D19" s="309" t="s">
-        <v>1154</v>
-      </c>
-      <c r="E19" s="310" t="s">
-        <v>1155</v>
-      </c>
-      <c r="F19" s="299"/>
-      <c r="G19" s="299"/>
-      <c r="H19" s="299"/>
-      <c r="I19" s="299"/>
-      <c r="J19" s="299"/>
-      <c r="K19" s="299"/>
-      <c r="L19" s="299"/>
-    </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="27" t="s">
-        <v>1077</v>
-      </c>
-      <c r="B20" s="298" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C20" s="283" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D20" s="309" t="s">
-        <v>1156</v>
-      </c>
-      <c r="E20" s="310" t="s">
-        <v>1157</v>
-      </c>
-      <c r="F20" s="299"/>
-      <c r="G20" s="299"/>
-      <c r="H20" s="299"/>
-      <c r="I20" s="299"/>
-      <c r="J20" s="299"/>
-      <c r="K20" s="299"/>
-      <c r="L20" s="299"/>
-    </row>
-    <row r="21" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="27" t="s">
-        <v>1078</v>
-      </c>
-      <c r="B21" s="298" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C21" s="283" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D21" s="309" t="s">
-        <v>1158</v>
-      </c>
-      <c r="E21" s="310" t="s">
-        <v>1159</v>
-      </c>
-      <c r="F21" s="299"/>
-      <c r="G21" s="299"/>
-      <c r="H21" s="299"/>
-      <c r="I21" s="299"/>
-      <c r="J21" s="299"/>
-      <c r="K21" s="299"/>
-      <c r="L21" s="299"/>
-    </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="300" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B22" s="301"/>
-      <c r="C22" s="301"/>
-      <c r="D22" s="303"/>
-      <c r="E22" s="303"/>
-      <c r="F22" s="301"/>
-      <c r="G22" s="301"/>
-      <c r="H22" s="301"/>
-      <c r="I22" s="301"/>
-      <c r="J22" s="301"/>
-      <c r="K22" s="301"/>
-      <c r="L22" s="301"/>
-    </row>
-    <row r="23" spans="1:12" s="291" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="27" t="s">
-        <v>1079</v>
-      </c>
-      <c r="B23" s="307" t="s">
-        <v>1160</v>
-      </c>
-      <c r="C23" s="311" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D23" s="306" t="s">
-        <v>1162</v>
-      </c>
-      <c r="E23" s="306" t="s">
-        <v>1163</v>
-      </c>
-      <c r="F23" s="290"/>
-      <c r="G23" s="290"/>
-      <c r="H23" s="290"/>
-      <c r="I23" s="290"/>
-      <c r="J23" s="290"/>
-      <c r="K23" s="290"/>
-      <c r="L23" s="290"/>
-    </row>
-    <row r="24" spans="1:12" s="291" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="27" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B24" s="307" t="s">
-        <v>1164</v>
-      </c>
-      <c r="C24" s="311" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D24" s="306" t="s">
-        <v>1165</v>
-      </c>
-      <c r="E24" s="306" t="s">
-        <v>1166</v>
-      </c>
-      <c r="F24" s="290"/>
-      <c r="G24" s="290"/>
-      <c r="H24" s="290"/>
-      <c r="I24" s="290"/>
-      <c r="J24" s="290"/>
-      <c r="K24" s="290"/>
-      <c r="L24" s="290"/>
-    </row>
-    <row r="25" spans="1:12" s="291" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="27" t="s">
-        <v>1081</v>
-      </c>
-      <c r="B25" s="307" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C25" s="311" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D25" s="306" t="s">
-        <v>1168</v>
-      </c>
-      <c r="E25" s="306" t="s">
-        <v>1169</v>
-      </c>
-      <c r="F25" s="290"/>
-      <c r="G25" s="290"/>
-      <c r="H25" s="290"/>
-      <c r="I25" s="290"/>
-      <c r="J25" s="290"/>
-      <c r="K25" s="290"/>
-      <c r="L25" s="290"/>
-    </row>
-    <row r="26" spans="1:12" s="312" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="452" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B26" s="453"/>
-      <c r="C26" s="453"/>
-      <c r="D26" s="453"/>
-      <c r="E26" s="453"/>
-      <c r="F26" s="453"/>
-      <c r="G26" s="453"/>
-      <c r="H26" s="453"/>
-      <c r="I26" s="453"/>
-      <c r="J26" s="453"/>
-      <c r="K26" s="453"/>
-      <c r="L26" s="454"/>
-    </row>
-    <row r="27" spans="1:12" s="312" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="27" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B27" s="310" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C27" s="311" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D27" s="310" t="s">
-        <v>1171</v>
-      </c>
-      <c r="E27" s="313" t="s">
-        <v>1172</v>
-      </c>
-      <c r="F27" s="310"/>
-      <c r="G27" s="314"/>
-      <c r="H27" s="314"/>
-      <c r="I27" s="314"/>
-      <c r="J27" s="314"/>
-      <c r="K27" s="314"/>
-      <c r="L27" s="314"/>
-    </row>
-    <row r="28" spans="1:12" s="312" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="27" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B28" s="313" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C28" s="311" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D28" s="310" t="s">
-        <v>1173</v>
-      </c>
-      <c r="E28" s="313" t="s">
-        <v>1174</v>
-      </c>
-      <c r="F28" s="315"/>
-      <c r="G28" s="315"/>
-      <c r="H28" s="315"/>
-      <c r="I28" s="315"/>
-      <c r="J28" s="315"/>
-      <c r="K28" s="315"/>
-      <c r="L28" s="315"/>
-    </row>
-    <row r="29" spans="1:12" s="312" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="27" t="s">
-        <v>1084</v>
-      </c>
-      <c r="B29" s="313" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C29" s="311" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D29" s="310" t="s">
-        <v>1175</v>
-      </c>
-      <c r="E29" s="313" t="s">
-        <v>1176</v>
-      </c>
-      <c r="F29" s="315"/>
-      <c r="G29" s="315"/>
-      <c r="H29" s="315"/>
-      <c r="I29" s="315"/>
-      <c r="J29" s="315"/>
-      <c r="K29" s="315"/>
-      <c r="L29" s="315"/>
-    </row>
-    <row r="30" spans="1:12" s="312" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="27" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B30" s="313" t="s">
-        <v>1058</v>
-      </c>
-      <c r="C30" s="311" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D30" s="310" t="s">
-        <v>1177</v>
-      </c>
-      <c r="E30" s="313" t="s">
-        <v>1178</v>
-      </c>
-      <c r="F30" s="315"/>
-      <c r="G30" s="315"/>
-      <c r="H30" s="315"/>
-      <c r="I30" s="315"/>
-      <c r="J30" s="315"/>
-      <c r="K30" s="315"/>
-      <c r="L30" s="315"/>
-    </row>
-    <row r="31" spans="1:12" s="312" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="27" t="s">
-        <v>1086</v>
-      </c>
-      <c r="B31" s="313" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C31" s="311" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D31" s="310" t="s">
-        <v>1179</v>
-      </c>
-      <c r="E31" s="313" t="s">
-        <v>1180</v>
-      </c>
-      <c r="F31" s="315"/>
-      <c r="G31" s="315"/>
-      <c r="H31" s="315"/>
-      <c r="I31" s="315"/>
-      <c r="J31" s="315"/>
-      <c r="K31" s="315"/>
-      <c r="L31" s="315"/>
-    </row>
-    <row r="32" spans="1:12" s="312" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="27" t="s">
-        <v>1087</v>
-      </c>
-      <c r="B32" s="313" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C32" s="311" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D32" s="310" t="s">
-        <v>1181</v>
-      </c>
-      <c r="E32" s="313" t="s">
-        <v>1182</v>
-      </c>
-      <c r="F32" s="315"/>
-      <c r="G32" s="315"/>
-      <c r="H32" s="315"/>
-      <c r="I32" s="315"/>
-      <c r="J32" s="315"/>
-      <c r="K32" s="315"/>
-      <c r="L32" s="315"/>
-    </row>
-    <row r="33" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="27" t="s">
-        <v>1088</v>
-      </c>
-      <c r="B33" s="306" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C33" s="311" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D33" s="316" t="s">
-        <v>1184</v>
-      </c>
-      <c r="E33" s="306" t="s">
-        <v>1185</v>
-      </c>
-      <c r="F33" s="317"/>
-      <c r="G33" s="317"/>
-      <c r="H33" s="317"/>
-      <c r="I33" s="317"/>
-      <c r="J33" s="317"/>
-      <c r="K33" s="317"/>
-      <c r="L33" s="317"/>
-    </row>
-    <row r="34" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="27" t="s">
-        <v>1089</v>
-      </c>
-      <c r="B34" s="306" t="s">
-        <v>1186</v>
-      </c>
-      <c r="C34" s="311" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D34" s="316" t="s">
-        <v>1187</v>
-      </c>
-      <c r="E34" s="306" t="s">
-        <v>1188</v>
-      </c>
-      <c r="F34" s="317"/>
-      <c r="G34" s="317"/>
-      <c r="H34" s="317"/>
-      <c r="I34" s="317"/>
-      <c r="J34" s="317"/>
-      <c r="K34" s="317"/>
-      <c r="L34" s="317"/>
-    </row>
-    <row r="35" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="27" t="s">
-        <v>1090</v>
-      </c>
-      <c r="B35" s="306" t="s">
-        <v>1189</v>
-      </c>
-      <c r="C35" s="311" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D35" s="316" t="s">
-        <v>1190</v>
-      </c>
-      <c r="E35" s="306" t="s">
-        <v>1191</v>
-      </c>
-      <c r="F35" s="317"/>
-      <c r="G35" s="317"/>
-      <c r="H35" s="317"/>
-      <c r="I35" s="317"/>
-      <c r="J35" s="317"/>
-      <c r="K35" s="317"/>
-      <c r="L35" s="317"/>
-    </row>
-    <row r="36" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="27" t="s">
-        <v>1091</v>
-      </c>
-      <c r="B36" s="306" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C36" s="311" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D36" s="316" t="s">
-        <v>1193</v>
-      </c>
-      <c r="E36" s="306" t="s">
-        <v>1194</v>
-      </c>
-      <c r="F36" s="317"/>
-      <c r="G36" s="317"/>
-      <c r="H36" s="317"/>
-      <c r="I36" s="317"/>
-      <c r="J36" s="317"/>
-      <c r="K36" s="317"/>
-      <c r="L36" s="317"/>
-    </row>
-    <row r="37" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="27" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B37" s="306" t="s">
-        <v>1195</v>
-      </c>
-      <c r="C37" s="311" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D37" s="316" t="s">
-        <v>1196</v>
-      </c>
-      <c r="E37" s="306" t="s">
-        <v>1197</v>
-      </c>
-      <c r="F37" s="317"/>
-      <c r="G37" s="317"/>
-      <c r="H37" s="317"/>
-      <c r="I37" s="317"/>
-      <c r="J37" s="317"/>
-      <c r="K37" s="317"/>
-      <c r="L37" s="317"/>
-    </row>
-    <row r="38" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="318" t="s">
-        <v>1198</v>
-      </c>
-      <c r="B38" s="319"/>
-      <c r="C38" s="319"/>
-      <c r="D38" s="319"/>
-      <c r="E38" s="319"/>
-      <c r="F38" s="319"/>
-      <c r="G38" s="319"/>
-      <c r="H38" s="319"/>
-      <c r="I38" s="319"/>
-      <c r="J38" s="319"/>
-      <c r="K38" s="319"/>
-      <c r="L38" s="320"/>
-    </row>
-    <row r="39" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="27" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B39" s="316" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C39" s="311" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D39" s="316" t="s">
-        <v>1199</v>
-      </c>
-      <c r="E39" s="306" t="s">
-        <v>1200</v>
-      </c>
-      <c r="F39" s="317"/>
-      <c r="G39" s="317"/>
-      <c r="H39" s="317"/>
-      <c r="I39" s="317"/>
-      <c r="J39" s="317"/>
-      <c r="K39" s="317"/>
-      <c r="L39" s="317"/>
-    </row>
-    <row r="40" spans="1:12" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="27" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B40" s="306" t="s">
-        <v>1201</v>
-      </c>
-      <c r="C40" s="311" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D40" s="316" t="s">
-        <v>1202</v>
-      </c>
-      <c r="E40" s="306" t="s">
-        <v>1362</v>
-      </c>
-      <c r="F40" s="317"/>
-      <c r="G40" s="317"/>
-      <c r="H40" s="317"/>
-      <c r="I40" s="317"/>
-      <c r="J40" s="317"/>
-      <c r="K40" s="317"/>
-      <c r="L40" s="317"/>
-    </row>
-    <row r="41" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="27" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B41" s="306" t="s">
-        <v>1203</v>
-      </c>
-      <c r="C41" s="311" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D41" s="316" t="s">
-        <v>1204</v>
-      </c>
-      <c r="E41" s="306" t="s">
-        <v>1205</v>
-      </c>
-      <c r="F41" s="317"/>
-      <c r="G41" s="317"/>
-      <c r="H41" s="317"/>
-      <c r="I41" s="317"/>
-      <c r="J41" s="317"/>
-      <c r="K41" s="317"/>
-      <c r="L41" s="317"/>
-    </row>
-    <row r="42" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="318" t="s">
-        <v>1206</v>
-      </c>
-      <c r="B42" s="319"/>
-      <c r="C42" s="319"/>
-      <c r="D42" s="319"/>
-      <c r="E42" s="319"/>
-      <c r="F42" s="319"/>
-      <c r="G42" s="319"/>
-      <c r="H42" s="319"/>
-      <c r="I42" s="319"/>
-      <c r="J42" s="319"/>
-      <c r="K42" s="319"/>
-      <c r="L42" s="320"/>
-    </row>
-    <row r="43" spans="1:12" s="338" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="334" t="s">
-        <v>1096</v>
-      </c>
-      <c r="B43" s="335" t="s">
-        <v>1403</v>
-      </c>
-      <c r="C43" s="336" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D43" s="335" t="s">
-        <v>1207</v>
-      </c>
-      <c r="E43" s="335" t="s">
-        <v>1208</v>
-      </c>
-      <c r="F43" s="337"/>
-      <c r="G43" s="337"/>
-      <c r="H43" s="337"/>
-      <c r="I43" s="337"/>
-      <c r="J43" s="337"/>
-      <c r="K43" s="337"/>
-      <c r="L43" s="337"/>
-    </row>
-    <row r="44" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="27" t="s">
-        <v>1097</v>
-      </c>
-      <c r="B44" s="306" t="s">
-        <v>1209</v>
-      </c>
-      <c r="C44" s="311" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D44" s="316" t="s">
-        <v>1210</v>
-      </c>
-      <c r="E44" s="306" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F44" s="317"/>
-      <c r="G44" s="317"/>
-      <c r="H44" s="317"/>
-      <c r="I44" s="317"/>
-      <c r="J44" s="317"/>
-      <c r="K44" s="317"/>
-      <c r="L44" s="317"/>
-    </row>
-    <row r="45" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="27" t="s">
-        <v>1345</v>
-      </c>
-      <c r="B45" s="306" t="s">
-        <v>1212</v>
-      </c>
-      <c r="C45" s="311" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D45" s="316" t="s">
-        <v>1213</v>
-      </c>
-      <c r="E45" s="306" t="s">
-        <v>1214</v>
-      </c>
-      <c r="F45" s="317"/>
-      <c r="G45" s="317"/>
-      <c r="H45" s="317"/>
-      <c r="I45" s="317"/>
-      <c r="J45" s="317"/>
-      <c r="K45" s="317"/>
-      <c r="L45" s="317"/>
-    </row>
-    <row r="46" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="27" t="s">
-        <v>1346</v>
-      </c>
-      <c r="B46" s="306" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C46" s="311" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D46" s="316" t="s">
-        <v>1216</v>
-      </c>
-      <c r="E46" s="306" t="s">
-        <v>1217</v>
-      </c>
-      <c r="F46" s="317"/>
-      <c r="G46" s="317"/>
-      <c r="H46" s="317"/>
-      <c r="I46" s="317"/>
-      <c r="J46" s="317"/>
-      <c r="K46" s="317"/>
-      <c r="L46" s="317"/>
-    </row>
-    <row r="47" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="27" t="s">
-        <v>1347</v>
-      </c>
-      <c r="B47" s="306" t="s">
-        <v>1218</v>
-      </c>
-      <c r="C47" s="311" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D47" s="316" t="s">
-        <v>1219</v>
-      </c>
-      <c r="E47" s="306" t="s">
-        <v>1220</v>
-      </c>
-      <c r="F47" s="317"/>
-      <c r="G47" s="317"/>
-      <c r="H47" s="317"/>
-      <c r="I47" s="317"/>
-      <c r="J47" s="317"/>
-      <c r="K47" s="317"/>
-      <c r="L47" s="317"/>
-    </row>
-    <row r="48" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="318" t="s">
-        <v>1221</v>
-      </c>
-      <c r="B48" s="319"/>
-      <c r="C48" s="319"/>
-      <c r="D48" s="319"/>
-      <c r="E48" s="319"/>
-      <c r="F48" s="319"/>
-      <c r="G48" s="319"/>
-      <c r="H48" s="319"/>
-      <c r="I48" s="319"/>
-      <c r="J48" s="319"/>
-      <c r="K48" s="319"/>
-      <c r="L48" s="320"/>
-    </row>
-    <row r="49" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="27" t="s">
-        <v>1348</v>
-      </c>
-      <c r="B49" s="316" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C49" s="311" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D49" s="316" t="s">
-        <v>1222</v>
-      </c>
-      <c r="E49" s="306" t="s">
-        <v>1223</v>
-      </c>
-      <c r="F49" s="317"/>
-      <c r="G49" s="317"/>
-      <c r="H49" s="317"/>
-      <c r="I49" s="317"/>
-      <c r="J49" s="317"/>
-      <c r="K49" s="317"/>
-      <c r="L49" s="317"/>
-    </row>
-    <row r="50" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="27" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B50" s="306" t="s">
-        <v>1224</v>
-      </c>
-      <c r="C50" s="311" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D50" s="316" t="s">
-        <v>1225</v>
-      </c>
-      <c r="E50" s="306" t="s">
-        <v>1205</v>
-      </c>
-      <c r="F50" s="317"/>
-      <c r="G50" s="317"/>
-      <c r="H50" s="317"/>
-      <c r="I50" s="317"/>
-      <c r="J50" s="317"/>
-      <c r="K50" s="317"/>
-      <c r="L50" s="317"/>
-    </row>
-    <row r="51" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="318" t="s">
-        <v>1226</v>
-      </c>
-      <c r="B51" s="319"/>
-      <c r="C51" s="319"/>
-      <c r="D51" s="319"/>
-      <c r="E51" s="319"/>
-      <c r="F51" s="319"/>
-      <c r="G51" s="319"/>
-      <c r="H51" s="319"/>
-      <c r="I51" s="319"/>
-      <c r="J51" s="319"/>
-      <c r="K51" s="319"/>
-      <c r="L51" s="320"/>
-    </row>
-    <row r="52" spans="1:12" s="338" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="334" t="s">
-        <v>1350</v>
-      </c>
-      <c r="B52" s="335" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C52" s="336" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D52" s="335" t="s">
-        <v>1227</v>
-      </c>
-      <c r="E52" s="335" t="s">
-        <v>1404</v>
-      </c>
-      <c r="F52" s="337"/>
-      <c r="G52" s="337"/>
-      <c r="H52" s="337"/>
-      <c r="I52" s="337"/>
-      <c r="J52" s="337"/>
-      <c r="K52" s="337"/>
-      <c r="L52" s="337"/>
-    </row>
-    <row r="53" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="27" t="s">
-        <v>1351</v>
-      </c>
-      <c r="B53" s="306" t="s">
-        <v>1228</v>
-      </c>
-      <c r="C53" s="311" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D53" s="316" t="s">
-        <v>1229</v>
-      </c>
-      <c r="E53" s="306" t="s">
-        <v>1230</v>
-      </c>
-      <c r="F53" s="317"/>
-      <c r="G53" s="317"/>
-      <c r="H53" s="317"/>
-      <c r="I53" s="317"/>
-      <c r="J53" s="317"/>
-      <c r="K53" s="317"/>
-      <c r="L53" s="317"/>
-    </row>
-    <row r="54" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="27" t="s">
-        <v>1352</v>
-      </c>
-      <c r="B54" s="306" t="s">
-        <v>1231</v>
-      </c>
-      <c r="C54" s="311" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D54" s="316" t="s">
-        <v>1232</v>
-      </c>
-      <c r="E54" s="306" t="s">
-        <v>1233</v>
-      </c>
-      <c r="F54" s="317"/>
-      <c r="G54" s="317"/>
-      <c r="H54" s="317"/>
-      <c r="I54" s="317"/>
-      <c r="J54" s="317"/>
-      <c r="K54" s="317"/>
-      <c r="L54" s="317"/>
-    </row>
-    <row r="55" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="455" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B55" s="455"/>
-      <c r="C55" s="455"/>
-      <c r="D55" s="455"/>
-      <c r="E55" s="455"/>
-      <c r="F55" s="455"/>
-      <c r="G55" s="455"/>
-      <c r="H55" s="455"/>
-      <c r="I55" s="455"/>
-      <c r="J55" s="455"/>
-      <c r="K55" s="455"/>
-      <c r="L55" s="455"/>
-    </row>
-    <row r="56" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="27" t="s">
-        <v>1353</v>
-      </c>
-      <c r="B56" s="310" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C56" s="311" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D56" s="310" t="s">
-        <v>1234</v>
-      </c>
-      <c r="E56" s="313" t="s">
-        <v>1235</v>
-      </c>
-      <c r="F56" s="317"/>
-      <c r="G56" s="317"/>
-      <c r="H56" s="317"/>
-      <c r="I56" s="317"/>
-      <c r="J56" s="317"/>
-      <c r="K56" s="317"/>
-      <c r="L56" s="317"/>
-    </row>
-    <row r="57" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="27" t="s">
-        <v>1354</v>
-      </c>
-      <c r="B57" s="313" t="s">
-        <v>1236</v>
-      </c>
-      <c r="C57" s="311" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D57" s="310" t="s">
-        <v>1237</v>
-      </c>
-      <c r="E57" s="306" t="s">
-        <v>1205</v>
-      </c>
-      <c r="F57" s="317"/>
-      <c r="G57" s="317"/>
-      <c r="H57" s="317"/>
-      <c r="I57" s="317"/>
-      <c r="J57" s="317"/>
-      <c r="K57" s="317"/>
-      <c r="L57" s="317"/>
-    </row>
-    <row r="58" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="455" t="s">
-        <v>1238</v>
-      </c>
-      <c r="B58" s="455"/>
-      <c r="C58" s="455"/>
-      <c r="D58" s="455"/>
-      <c r="E58" s="455"/>
-      <c r="F58" s="455"/>
-      <c r="G58" s="455"/>
-      <c r="H58" s="455"/>
-      <c r="I58" s="455"/>
-      <c r="J58" s="455"/>
-      <c r="K58" s="455"/>
-      <c r="L58" s="455"/>
-    </row>
-    <row r="59" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="27" t="s">
-        <v>1098</v>
-      </c>
-      <c r="B59" s="316" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C59" s="311" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D59" s="316" t="s">
-        <v>1239</v>
-      </c>
-      <c r="E59" s="306" t="s">
-        <v>1240</v>
-      </c>
-      <c r="F59" s="317"/>
-      <c r="G59" s="317"/>
-      <c r="H59" s="317"/>
-      <c r="I59" s="317"/>
-      <c r="J59" s="317"/>
-      <c r="K59" s="317"/>
-      <c r="L59" s="317"/>
-    </row>
-    <row r="60" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="27" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B60" s="306" t="s">
-        <v>1241</v>
-      </c>
-      <c r="C60" s="311" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D60" s="316" t="s">
-        <v>1242</v>
-      </c>
-      <c r="E60" s="306" t="s">
-        <v>1243</v>
-      </c>
-      <c r="F60" s="317"/>
-      <c r="G60" s="317"/>
-      <c r="H60" s="317"/>
-      <c r="I60" s="317"/>
-      <c r="J60" s="317"/>
-      <c r="K60" s="317"/>
-      <c r="L60" s="317"/>
-    </row>
-    <row r="61" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="455" t="s">
-        <v>1244</v>
-      </c>
-      <c r="B61" s="455"/>
-      <c r="C61" s="455"/>
-      <c r="D61" s="455"/>
-      <c r="E61" s="455"/>
-      <c r="F61" s="455"/>
-      <c r="G61" s="455"/>
-      <c r="H61" s="455"/>
-      <c r="I61" s="455"/>
-      <c r="J61" s="455"/>
-      <c r="K61" s="455"/>
-      <c r="L61" s="455"/>
-    </row>
-    <row r="62" spans="1:12" s="338" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="334" t="s">
-        <v>1100</v>
-      </c>
-      <c r="B62" s="335" t="s">
-        <v>1406</v>
-      </c>
-      <c r="C62" s="336" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D62" s="335" t="s">
-        <v>1245</v>
-      </c>
-      <c r="E62" s="335" t="s">
-        <v>1246</v>
-      </c>
-      <c r="F62" s="337"/>
-      <c r="G62" s="337"/>
-      <c r="H62" s="337"/>
-      <c r="I62" s="337"/>
-      <c r="J62" s="337"/>
-      <c r="K62" s="337"/>
-      <c r="L62" s="337"/>
-    </row>
-    <row r="63" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="27" t="s">
-        <v>1101</v>
-      </c>
-      <c r="B63" s="306" t="s">
-        <v>1247</v>
-      </c>
-      <c r="C63" s="311" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D63" s="316" t="s">
-        <v>1248</v>
-      </c>
-      <c r="E63" s="306" t="s">
-        <v>1249</v>
-      </c>
-      <c r="F63" s="317"/>
-      <c r="G63" s="317"/>
-      <c r="H63" s="317"/>
-      <c r="I63" s="317"/>
-      <c r="J63" s="317"/>
-      <c r="K63" s="317"/>
-      <c r="L63" s="317"/>
-    </row>
-    <row r="64" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="452" t="s">
-        <v>1250</v>
-      </c>
-      <c r="B64" s="453"/>
-      <c r="C64" s="453"/>
-      <c r="D64" s="453"/>
-      <c r="E64" s="453"/>
-      <c r="F64" s="453"/>
-      <c r="G64" s="453"/>
-      <c r="H64" s="453"/>
-      <c r="I64" s="453"/>
-      <c r="J64" s="453"/>
-      <c r="K64" s="453"/>
-      <c r="L64" s="454"/>
-    </row>
-    <row r="65" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="27" t="s">
-        <v>1102</v>
-      </c>
-      <c r="B65" s="316" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C65" s="311" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D65" s="316" t="s">
-        <v>1251</v>
-      </c>
-      <c r="E65" s="306" t="s">
-        <v>1252</v>
-      </c>
-      <c r="F65" s="317"/>
-      <c r="G65" s="317"/>
-      <c r="H65" s="317"/>
-      <c r="I65" s="317"/>
-      <c r="J65" s="317"/>
-      <c r="K65" s="317"/>
-      <c r="L65" s="317"/>
-    </row>
-    <row r="66" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="27" t="s">
-        <v>1103</v>
-      </c>
-      <c r="B66" s="306" t="s">
-        <v>1253</v>
-      </c>
-      <c r="C66" s="311" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D66" s="316" t="s">
-        <v>1254</v>
-      </c>
-      <c r="E66" s="306" t="s">
-        <v>1255</v>
-      </c>
-      <c r="F66" s="317"/>
-      <c r="G66" s="317"/>
-      <c r="H66" s="317"/>
-      <c r="I66" s="317"/>
-      <c r="J66" s="317"/>
-      <c r="K66" s="317"/>
-      <c r="L66" s="317"/>
-    </row>
-    <row r="67" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="27" t="s">
-        <v>1104</v>
-      </c>
-      <c r="B67" s="306" t="s">
-        <v>1256</v>
-      </c>
-      <c r="C67" s="311" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D67" s="316" t="s">
-        <v>1257</v>
-      </c>
-      <c r="E67" s="306" t="s">
-        <v>1258</v>
-      </c>
-      <c r="F67" s="317"/>
-      <c r="G67" s="317"/>
-      <c r="H67" s="317"/>
-      <c r="I67" s="317"/>
-      <c r="J67" s="317"/>
-      <c r="K67" s="317"/>
-      <c r="L67" s="317"/>
-    </row>
-    <row r="68" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="27" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B68" s="306" t="s">
-        <v>1259</v>
-      </c>
-      <c r="C68" s="311" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D68" s="316" t="s">
-        <v>1260</v>
-      </c>
-      <c r="E68" s="316" t="s">
-        <v>1261</v>
-      </c>
-      <c r="F68" s="317"/>
-      <c r="G68" s="317"/>
-      <c r="H68" s="317"/>
-      <c r="I68" s="317"/>
-      <c r="J68" s="317"/>
-      <c r="K68" s="317"/>
-      <c r="L68" s="317"/>
-    </row>
-    <row r="69" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="455" t="s">
-        <v>1262</v>
-      </c>
-      <c r="B69" s="455"/>
-      <c r="C69" s="455"/>
-      <c r="D69" s="455"/>
-      <c r="E69" s="455"/>
-      <c r="F69" s="455"/>
-      <c r="G69" s="455"/>
-      <c r="H69" s="455"/>
-      <c r="I69" s="455"/>
-      <c r="J69" s="455"/>
-      <c r="K69" s="455"/>
-      <c r="L69" s="455"/>
-    </row>
-    <row r="70" spans="1:12" s="338" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="334" t="s">
-        <v>1106</v>
-      </c>
-      <c r="B70" s="335" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C70" s="336" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D70" s="335" t="s">
-        <v>1263</v>
-      </c>
-      <c r="E70" s="335" t="s">
-        <v>1407</v>
-      </c>
-      <c r="F70" s="337"/>
-      <c r="G70" s="337"/>
-      <c r="H70" s="337"/>
-      <c r="I70" s="337"/>
-      <c r="J70" s="337"/>
-      <c r="K70" s="337"/>
-      <c r="L70" s="337"/>
-    </row>
-    <row r="71" spans="1:12" s="343" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="339" t="s">
-        <v>1107</v>
-      </c>
-      <c r="B71" s="340" t="s">
-        <v>1264</v>
-      </c>
-      <c r="C71" s="341" t="s">
-        <v>1408</v>
-      </c>
-      <c r="D71" s="340" t="s">
-        <v>1409</v>
-      </c>
-      <c r="E71" s="340" t="s">
-        <v>1410</v>
-      </c>
-      <c r="F71" s="342"/>
-      <c r="G71" s="342"/>
-      <c r="H71" s="342"/>
-      <c r="I71" s="342"/>
-      <c r="J71" s="344" t="s">
-        <v>1411</v>
-      </c>
-      <c r="K71" s="342"/>
-      <c r="L71" s="342"/>
-    </row>
-    <row r="72" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="27" t="s">
-        <v>1108</v>
-      </c>
-      <c r="B72" s="306" t="s">
-        <v>1265</v>
-      </c>
-      <c r="C72" s="311" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D72" s="316" t="s">
-        <v>1266</v>
-      </c>
-      <c r="E72" s="306" t="s">
-        <v>1267</v>
-      </c>
-      <c r="F72" s="317"/>
-      <c r="G72" s="317"/>
-      <c r="H72" s="317"/>
-      <c r="I72" s="317"/>
-      <c r="J72" s="317"/>
-      <c r="K72" s="317"/>
-      <c r="L72" s="317"/>
-    </row>
-    <row r="73" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="27" t="s">
-        <v>1109</v>
-      </c>
-      <c r="B73" s="306" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C73" s="311" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D73" s="316" t="s">
-        <v>1269</v>
-      </c>
-      <c r="E73" s="306" t="s">
-        <v>1270</v>
-      </c>
-      <c r="F73" s="317"/>
-      <c r="G73" s="317"/>
-      <c r="H73" s="317"/>
-      <c r="I73" s="317"/>
-      <c r="J73" s="317"/>
-      <c r="K73" s="317"/>
-      <c r="L73" s="317"/>
-    </row>
-    <row r="74" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="27" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B74" s="306" t="s">
-        <v>1271</v>
-      </c>
-      <c r="C74" s="311" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D74" s="316" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E74" s="306" t="s">
-        <v>1273</v>
-      </c>
-      <c r="F74" s="317"/>
-      <c r="G74" s="317"/>
-      <c r="H74" s="317"/>
-      <c r="I74" s="317"/>
-      <c r="J74" s="317"/>
-      <c r="K74" s="317"/>
-      <c r="L74" s="317"/>
-    </row>
-    <row r="75" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="455" t="s">
-        <v>1274</v>
-      </c>
-      <c r="B75" s="455"/>
-      <c r="C75" s="455"/>
-      <c r="D75" s="455"/>
-      <c r="E75" s="455"/>
-      <c r="F75" s="455"/>
-      <c r="G75" s="455"/>
-      <c r="H75" s="455"/>
-      <c r="I75" s="455"/>
-      <c r="J75" s="455"/>
-      <c r="K75" s="455"/>
-      <c r="L75" s="455"/>
-    </row>
-    <row r="76" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="27" t="s">
-        <v>1111</v>
-      </c>
-      <c r="B76" s="316" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C76" s="311" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D76" s="316" t="s">
-        <v>1275</v>
-      </c>
-      <c r="E76" s="306" t="s">
-        <v>1276</v>
-      </c>
-      <c r="F76" s="317"/>
-      <c r="G76" s="317"/>
-      <c r="H76" s="317"/>
-      <c r="I76" s="317"/>
-      <c r="J76" s="317"/>
-      <c r="K76" s="317"/>
-      <c r="L76" s="317"/>
-    </row>
-    <row r="77" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="27" t="s">
-        <v>1112</v>
-      </c>
-      <c r="B77" s="306" t="s">
-        <v>1277</v>
-      </c>
-      <c r="C77" s="311" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D77" s="316" t="s">
-        <v>1278</v>
-      </c>
-      <c r="E77" s="306" t="s">
-        <v>1279</v>
-      </c>
-      <c r="F77" s="317"/>
-      <c r="G77" s="317"/>
-      <c r="H77" s="317"/>
-      <c r="I77" s="317"/>
-      <c r="J77" s="317"/>
-      <c r="K77" s="317"/>
-      <c r="L77" s="317"/>
-    </row>
-    <row r="78" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="27" t="s">
-        <v>1113</v>
-      </c>
-      <c r="B78" s="306" t="s">
-        <v>1280</v>
-      </c>
-      <c r="C78" s="311" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D78" s="316" t="s">
-        <v>1281</v>
-      </c>
-      <c r="E78" s="306" t="s">
-        <v>1282</v>
-      </c>
-      <c r="F78" s="317"/>
-      <c r="G78" s="317"/>
-      <c r="H78" s="317"/>
-      <c r="I78" s="317"/>
-      <c r="J78" s="317"/>
-      <c r="K78" s="317"/>
-      <c r="L78" s="317"/>
-    </row>
-    <row r="79" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="455" t="s">
-        <v>1283</v>
-      </c>
-      <c r="B79" s="455"/>
-      <c r="C79" s="455"/>
-      <c r="D79" s="455"/>
-      <c r="E79" s="455"/>
-      <c r="F79" s="455"/>
-      <c r="G79" s="455"/>
-      <c r="H79" s="455"/>
-      <c r="I79" s="455"/>
-      <c r="J79" s="455"/>
-      <c r="K79" s="455"/>
-      <c r="L79" s="455"/>
-    </row>
-    <row r="80" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="27" t="s">
-        <v>1114</v>
-      </c>
-      <c r="B80" s="316" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C80" s="311" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D80" s="316" t="s">
-        <v>1284</v>
-      </c>
-      <c r="E80" s="306" t="s">
-        <v>1285</v>
-      </c>
-      <c r="F80" s="317"/>
-      <c r="G80" s="317"/>
-      <c r="H80" s="317"/>
-      <c r="I80" s="317"/>
-      <c r="J80" s="317"/>
-      <c r="K80" s="317"/>
-      <c r="L80" s="317"/>
-    </row>
-    <row r="81" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="27" t="s">
-        <v>1115</v>
-      </c>
-      <c r="B81" s="306" t="s">
-        <v>1286</v>
-      </c>
-      <c r="C81" s="311" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D81" s="316" t="s">
-        <v>1287</v>
-      </c>
-      <c r="E81" s="306" t="s">
-        <v>1288</v>
-      </c>
-      <c r="F81" s="317"/>
-      <c r="G81" s="317"/>
-      <c r="H81" s="317"/>
-      <c r="I81" s="317"/>
-      <c r="J81" s="317"/>
-      <c r="K81" s="317"/>
-      <c r="L81" s="317"/>
-    </row>
-    <row r="82" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="27" t="s">
-        <v>1116</v>
-      </c>
-      <c r="B82" s="306" t="s">
-        <v>1289</v>
-      </c>
-      <c r="C82" s="311" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D82" s="316" t="s">
-        <v>1290</v>
-      </c>
-      <c r="E82" s="306" t="s">
-        <v>1205</v>
-      </c>
-      <c r="F82" s="317"/>
-      <c r="G82" s="317"/>
-      <c r="H82" s="317"/>
-      <c r="I82" s="317"/>
-      <c r="J82" s="317"/>
-      <c r="K82" s="317"/>
-      <c r="L82" s="317"/>
-    </row>
-    <row r="83" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="27" t="s">
-        <v>1117</v>
-      </c>
-      <c r="B83" s="306" t="s">
-        <v>1286</v>
-      </c>
-      <c r="C83" s="311" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D83" s="316" t="s">
-        <v>1291</v>
-      </c>
-      <c r="E83" s="316" t="s">
-        <v>1292</v>
-      </c>
-      <c r="F83" s="317"/>
-      <c r="G83" s="317"/>
-      <c r="H83" s="317"/>
-      <c r="I83" s="317"/>
-      <c r="J83" s="317"/>
-      <c r="K83" s="317"/>
-      <c r="L83" s="317"/>
-    </row>
-    <row r="84" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="455" t="s">
-        <v>1293</v>
-      </c>
-      <c r="B84" s="455"/>
-      <c r="C84" s="455"/>
-      <c r="D84" s="455"/>
-      <c r="E84" s="455"/>
-      <c r="F84" s="455"/>
-      <c r="G84" s="455"/>
-      <c r="H84" s="455"/>
-      <c r="I84" s="455"/>
-      <c r="J84" s="455"/>
-      <c r="K84" s="455"/>
-      <c r="L84" s="455"/>
-    </row>
-    <row r="85" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="27" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B85" s="316" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C85" s="311" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D85" s="316" t="s">
-        <v>1294</v>
-      </c>
-      <c r="E85" s="306" t="s">
-        <v>1295</v>
-      </c>
-      <c r="F85" s="317"/>
-      <c r="G85" s="317"/>
-      <c r="H85" s="317"/>
-      <c r="I85" s="317"/>
-      <c r="J85" s="317"/>
-      <c r="K85" s="317"/>
-      <c r="L85" s="317"/>
-    </row>
-    <row r="86" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="27" t="s">
-        <v>1119</v>
-      </c>
-      <c r="B86" s="306" t="s">
-        <v>1296</v>
-      </c>
-      <c r="C86" s="311" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D86" s="316" t="s">
-        <v>1297</v>
-      </c>
-      <c r="E86" s="316" t="s">
-        <v>1298</v>
-      </c>
-      <c r="F86" s="317"/>
-      <c r="G86" s="317"/>
-      <c r="H86" s="317"/>
-      <c r="I86" s="317"/>
-      <c r="J86" s="317"/>
-      <c r="K86" s="317"/>
-      <c r="L86" s="317"/>
-    </row>
-    <row r="87" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="455" t="s">
-        <v>1299</v>
-      </c>
-      <c r="B87" s="455"/>
-      <c r="C87" s="455"/>
-      <c r="D87" s="455"/>
-      <c r="E87" s="455"/>
-      <c r="F87" s="455"/>
-      <c r="G87" s="455"/>
-      <c r="H87" s="455"/>
-      <c r="I87" s="455"/>
-      <c r="J87" s="455"/>
-      <c r="K87" s="455"/>
-      <c r="L87" s="455"/>
-    </row>
-    <row r="88" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="27" t="s">
-        <v>1120</v>
-      </c>
-      <c r="B88" s="316" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C88" s="311" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D88" s="316" t="s">
-        <v>1300</v>
-      </c>
-      <c r="E88" s="306" t="s">
-        <v>1301</v>
-      </c>
-      <c r="F88" s="317"/>
-      <c r="G88" s="317"/>
-      <c r="H88" s="317"/>
-      <c r="I88" s="317"/>
-      <c r="J88" s="317"/>
-      <c r="K88" s="317"/>
-      <c r="L88" s="317"/>
-    </row>
-    <row r="89" spans="1:12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="27" t="s">
-        <v>1121</v>
-      </c>
-      <c r="B89" s="306" t="s">
-        <v>1302</v>
-      </c>
-      <c r="C89" s="311" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D89" s="316" t="s">
-        <v>1303</v>
-      </c>
-      <c r="E89" s="306" t="s">
-        <v>1362</v>
-      </c>
-      <c r="F89" s="317"/>
-      <c r="G89" s="317"/>
-      <c r="H89" s="317"/>
-      <c r="I89" s="317"/>
-      <c r="J89" s="317"/>
-      <c r="K89" s="317"/>
-      <c r="L89" s="317"/>
-    </row>
-    <row r="90" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="27" t="s">
-        <v>1122</v>
-      </c>
-      <c r="B90" s="306" t="s">
-        <v>1304</v>
-      </c>
-      <c r="C90" s="311" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D90" s="316" t="s">
-        <v>1305</v>
-      </c>
-      <c r="E90" s="306" t="s">
-        <v>1205</v>
-      </c>
-      <c r="F90" s="317"/>
-      <c r="G90" s="317"/>
-      <c r="H90" s="317"/>
-      <c r="I90" s="317"/>
-      <c r="J90" s="317"/>
-      <c r="K90" s="317"/>
-      <c r="L90" s="317"/>
-    </row>
-    <row r="91" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="27" t="s">
-        <v>1123</v>
-      </c>
-      <c r="B91" s="306" t="s">
-        <v>1306</v>
-      </c>
-      <c r="C91" s="311" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D91" s="316" t="s">
-        <v>1305</v>
-      </c>
-      <c r="E91" s="306" t="s">
-        <v>1205</v>
-      </c>
-      <c r="F91" s="317"/>
-      <c r="G91" s="317"/>
-      <c r="H91" s="317"/>
-      <c r="I91" s="317"/>
-      <c r="J91" s="317"/>
-      <c r="K91" s="317"/>
-      <c r="L91" s="317"/>
-    </row>
-    <row r="92" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="455" t="s">
-        <v>1307</v>
-      </c>
-      <c r="B92" s="455"/>
-      <c r="C92" s="455"/>
-      <c r="D92" s="455"/>
-      <c r="E92" s="455"/>
-      <c r="F92" s="455"/>
-      <c r="G92" s="455"/>
-      <c r="H92" s="455"/>
-      <c r="I92" s="455"/>
-      <c r="J92" s="455"/>
-      <c r="K92" s="455"/>
-      <c r="L92" s="455"/>
-    </row>
-    <row r="93" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="27" t="s">
-        <v>1124</v>
-      </c>
-      <c r="B93" s="316" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C93" s="311" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D93" s="316" t="s">
-        <v>1308</v>
-      </c>
-      <c r="E93" s="306" t="s">
-        <v>1309</v>
-      </c>
-      <c r="F93" s="317"/>
-      <c r="G93" s="317"/>
-      <c r="H93" s="317"/>
-      <c r="I93" s="317"/>
-      <c r="J93" s="317"/>
-      <c r="K93" s="317"/>
-      <c r="L93" s="317"/>
-    </row>
-    <row r="94" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="27" t="s">
-        <v>1125</v>
-      </c>
-      <c r="B94" s="306" t="s">
-        <v>1310</v>
-      </c>
-      <c r="C94" s="311" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D94" s="316" t="s">
-        <v>1311</v>
-      </c>
-      <c r="E94" s="316" t="s">
-        <v>1312</v>
-      </c>
-      <c r="F94" s="317"/>
-      <c r="G94" s="317"/>
-      <c r="H94" s="317"/>
-      <c r="I94" s="317"/>
-      <c r="J94" s="317"/>
-      <c r="K94" s="317"/>
-      <c r="L94" s="317"/>
-    </row>
-    <row r="95" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="27" t="s">
-        <v>1126</v>
-      </c>
-      <c r="B95" s="306" t="s">
-        <v>1313</v>
-      </c>
-      <c r="C95" s="311" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D95" s="316" t="s">
-        <v>1314</v>
-      </c>
-      <c r="E95" s="316" t="s">
-        <v>1315</v>
-      </c>
-      <c r="F95" s="317"/>
-      <c r="G95" s="317"/>
-      <c r="H95" s="317"/>
-      <c r="I95" s="317"/>
-      <c r="J95" s="317"/>
-      <c r="K95" s="317"/>
-      <c r="L95" s="317"/>
-    </row>
-    <row r="96" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="455" t="s">
-        <v>1316</v>
-      </c>
-      <c r="B96" s="455"/>
-      <c r="C96" s="455"/>
-      <c r="D96" s="455"/>
-      <c r="E96" s="455"/>
-      <c r="F96" s="455"/>
-      <c r="G96" s="455"/>
-      <c r="H96" s="455"/>
-      <c r="I96" s="455"/>
-      <c r="J96" s="455"/>
-      <c r="K96" s="455"/>
-      <c r="L96" s="455"/>
-    </row>
-    <row r="97" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="27" t="s">
-        <v>1127</v>
-      </c>
-      <c r="B97" s="316" t="s">
-        <v>1317</v>
-      </c>
-      <c r="C97" s="311" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D97" s="316" t="s">
-        <v>1318</v>
-      </c>
-      <c r="E97" s="306" t="s">
-        <v>1319</v>
-      </c>
-      <c r="F97" s="317"/>
-      <c r="G97" s="317"/>
-      <c r="H97" s="317"/>
-      <c r="I97" s="317"/>
-      <c r="J97" s="317"/>
-      <c r="K97" s="317"/>
-      <c r="L97" s="317"/>
-    </row>
-    <row r="98" spans="1:12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="27" t="s">
-        <v>1355</v>
-      </c>
-      <c r="B98" s="316" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C98" s="311" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D98" s="316" t="s">
-        <v>1320</v>
-      </c>
-      <c r="E98" s="306" t="s">
-        <v>1319</v>
-      </c>
-      <c r="F98" s="317"/>
-      <c r="G98" s="317"/>
-      <c r="H98" s="317"/>
-      <c r="I98" s="317"/>
-      <c r="J98" s="317"/>
-      <c r="K98" s="317"/>
-      <c r="L98" s="317"/>
-    </row>
-    <row r="99" spans="1:12" s="347" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="345"/>
-      <c r="B99" s="346"/>
-      <c r="C99" s="346"/>
-      <c r="D99" s="346"/>
-      <c r="E99" s="346"/>
-      <c r="F99" s="346"/>
-      <c r="G99" s="346"/>
-      <c r="H99" s="346"/>
-      <c r="I99" s="346"/>
-      <c r="J99" s="346"/>
-      <c r="K99" s="346"/>
-      <c r="L99" s="346"/>
-    </row>
-    <row r="100" spans="1:12" s="352" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="348" t="s">
-        <v>1429</v>
-      </c>
-      <c r="B100" s="349" t="s">
-        <v>1412</v>
-      </c>
-      <c r="C100" s="350" t="s">
-        <v>1425</v>
-      </c>
-      <c r="D100" s="349" t="s">
-        <v>1207</v>
-      </c>
-      <c r="E100" s="349" t="s">
-        <v>1413</v>
-      </c>
-      <c r="F100" s="351"/>
-      <c r="G100" s="351"/>
-      <c r="H100" s="351"/>
-      <c r="I100" s="351"/>
-      <c r="J100" s="351"/>
-      <c r="K100" s="351"/>
-      <c r="L100" s="351"/>
-    </row>
-    <row r="101" spans="1:12" s="357" customFormat="1" ht="158.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="348" t="s">
-        <v>1430</v>
-      </c>
-      <c r="B101" s="353" t="s">
-        <v>1414</v>
-      </c>
-      <c r="C101" s="354" t="s">
-        <v>1426</v>
-      </c>
-      <c r="D101" s="353" t="s">
-        <v>1415</v>
-      </c>
-      <c r="E101" s="353" t="s">
-        <v>1416</v>
-      </c>
-      <c r="F101" s="355"/>
-      <c r="G101" s="355"/>
-      <c r="H101" s="355"/>
-      <c r="I101" s="355"/>
-      <c r="J101" s="356"/>
-      <c r="K101" s="355"/>
-      <c r="L101" s="355"/>
-    </row>
-    <row r="102" spans="1:12" s="352" customFormat="1" ht="130.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="348" t="s">
-        <v>1431</v>
-      </c>
-      <c r="B102" s="349" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C102" s="350" t="s">
-        <v>1425</v>
-      </c>
-      <c r="D102" s="349" t="s">
-        <v>1245</v>
-      </c>
-      <c r="E102" s="349" t="s">
-        <v>1418</v>
-      </c>
-      <c r="F102" s="351"/>
-      <c r="G102" s="351"/>
-      <c r="H102" s="351"/>
-      <c r="I102" s="351"/>
-      <c r="J102" s="351"/>
-      <c r="K102" s="351"/>
-      <c r="L102" s="351"/>
-    </row>
-    <row r="103" spans="1:12" s="352" customFormat="1" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="348" t="s">
-        <v>1432</v>
-      </c>
-      <c r="B103" s="358" t="s">
-        <v>1419</v>
-      </c>
-      <c r="C103" s="359" t="s">
-        <v>1427</v>
-      </c>
-      <c r="D103" s="358" t="s">
-        <v>1420</v>
-      </c>
-      <c r="E103" s="358" t="s">
-        <v>1421</v>
-      </c>
-      <c r="F103" s="360"/>
-      <c r="G103" s="360"/>
-      <c r="H103" s="360"/>
-      <c r="I103" s="360"/>
-      <c r="J103" s="360"/>
-      <c r="K103" s="360"/>
-      <c r="L103" s="360"/>
-    </row>
-    <row r="104" spans="1:12" s="352" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="348" t="s">
-        <v>1433</v>
-      </c>
-      <c r="B104" s="358" t="s">
-        <v>1422</v>
-      </c>
-      <c r="C104" s="359" t="s">
-        <v>1428</v>
-      </c>
-      <c r="D104" s="358" t="s">
-        <v>1423</v>
-      </c>
-      <c r="E104" s="358" t="s">
-        <v>1424</v>
-      </c>
-      <c r="F104" s="360"/>
-      <c r="G104" s="360"/>
-      <c r="H104" s="360"/>
-      <c r="I104" s="360"/>
-      <c r="J104" s="360"/>
-      <c r="K104" s="360"/>
-      <c r="L104" s="360"/>
-    </row>
-    <row r="105" spans="1:12" s="321" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="464" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B105" s="464"/>
-      <c r="C105" s="464"/>
-      <c r="D105" s="464"/>
-      <c r="E105" s="464"/>
-      <c r="F105" s="464"/>
-      <c r="G105" s="464"/>
-      <c r="H105" s="464"/>
-      <c r="I105" s="464"/>
-      <c r="J105" s="464"/>
-      <c r="K105" s="464"/>
-      <c r="L105" s="464"/>
-    </row>
-    <row r="106" spans="1:12" s="321" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="322" t="s">
-        <v>1356</v>
-      </c>
-      <c r="B106" s="323" t="s">
-        <v>1321</v>
-      </c>
-      <c r="C106" s="324" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D106" s="323" t="s">
-        <v>1322</v>
-      </c>
-      <c r="E106" s="323" t="s">
-        <v>1323</v>
-      </c>
-      <c r="F106" s="325"/>
-      <c r="G106" s="325"/>
-      <c r="H106" s="325"/>
-      <c r="I106" s="325"/>
-      <c r="J106" s="325"/>
-      <c r="K106" s="325"/>
-      <c r="L106" s="325"/>
-    </row>
-    <row r="107" spans="1:12" s="321" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="322" t="s">
-        <v>1128</v>
-      </c>
-      <c r="B107" s="323" t="s">
-        <v>1324</v>
-      </c>
-      <c r="C107" s="324" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D107" s="323" t="s">
-        <v>1325</v>
-      </c>
-      <c r="E107" s="323" t="s">
-        <v>1326</v>
-      </c>
-      <c r="G107" s="325"/>
-      <c r="H107" s="325"/>
-      <c r="I107" s="325"/>
-      <c r="J107" s="325"/>
-      <c r="K107" s="325"/>
-      <c r="L107" s="325"/>
-    </row>
-    <row r="108" spans="1:12" s="321" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="322" t="s">
-        <v>1357</v>
-      </c>
-      <c r="B108" s="326" t="s">
-        <v>1327</v>
-      </c>
-      <c r="C108" s="324" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D108" s="323" t="s">
-        <v>1328</v>
-      </c>
-      <c r="E108" s="323" t="s">
-        <v>1329</v>
-      </c>
-      <c r="F108" s="325"/>
-      <c r="G108" s="325"/>
-      <c r="H108" s="325"/>
-      <c r="I108" s="325"/>
-      <c r="J108" s="325"/>
-      <c r="K108" s="325"/>
-      <c r="L108" s="325"/>
-    </row>
-    <row r="109" spans="1:12" s="321" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="322" t="s">
-        <v>1358</v>
-      </c>
-      <c r="B109" s="323" t="s">
-        <v>1330</v>
-      </c>
-      <c r="C109" s="324" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D109" s="323" t="s">
-        <v>1331</v>
-      </c>
-      <c r="E109" s="323" t="s">
-        <v>1332</v>
-      </c>
-      <c r="F109" s="325"/>
-      <c r="G109" s="325"/>
-      <c r="H109" s="325"/>
-      <c r="I109" s="325"/>
-      <c r="J109" s="325"/>
-      <c r="K109" s="325"/>
-      <c r="L109" s="325"/>
-    </row>
-    <row r="110" spans="1:12" s="321" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="322" t="s">
-        <v>1359</v>
-      </c>
-      <c r="B110" s="326" t="s">
-        <v>1327</v>
-      </c>
-      <c r="C110" s="324" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D110" s="323" t="s">
-        <v>1333</v>
-      </c>
-      <c r="E110" s="323" t="s">
-        <v>1334</v>
-      </c>
-      <c r="F110" s="323"/>
-      <c r="G110" s="325"/>
-      <c r="H110" s="325"/>
-      <c r="I110" s="325"/>
-      <c r="J110" s="325"/>
-      <c r="K110" s="325"/>
-      <c r="L110" s="325"/>
-    </row>
-    <row r="111" spans="1:12" s="321" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="327" t="s">
-        <v>1335</v>
-      </c>
-      <c r="B111" s="325"/>
-      <c r="C111" s="325"/>
-      <c r="D111" s="325"/>
-      <c r="E111" s="325"/>
-      <c r="F111" s="325"/>
-      <c r="G111" s="325"/>
-      <c r="H111" s="325"/>
-      <c r="I111" s="325"/>
-      <c r="J111" s="325"/>
-      <c r="K111" s="325"/>
-      <c r="L111" s="325"/>
-    </row>
-    <row r="112" spans="1:12" s="321" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="322" t="s">
-        <v>1360</v>
-      </c>
-      <c r="B112" s="323" t="s">
-        <v>1337</v>
-      </c>
-      <c r="C112" s="324" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D112" s="323" t="s">
-        <v>1338</v>
-      </c>
-      <c r="E112" s="323" t="s">
-        <v>1339</v>
-      </c>
-      <c r="F112" s="323"/>
-      <c r="G112" s="325"/>
-      <c r="H112" s="325"/>
-      <c r="I112" s="325"/>
-      <c r="J112" s="325"/>
-      <c r="K112" s="325"/>
-      <c r="L112" s="325"/>
-    </row>
-    <row r="113" spans="1:12" s="321" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="322" t="s">
-        <v>1336</v>
-      </c>
-      <c r="B113" s="323" t="s">
-        <v>1340</v>
-      </c>
-      <c r="C113" s="324" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D113" s="323" t="s">
-        <v>1341</v>
-      </c>
-      <c r="E113" s="323" t="s">
-        <v>1288</v>
-      </c>
-      <c r="F113" s="325"/>
-      <c r="G113" s="325"/>
-      <c r="H113" s="325"/>
-      <c r="I113" s="325"/>
-      <c r="J113" s="325"/>
-      <c r="K113" s="325"/>
-      <c r="L113" s="325"/>
-    </row>
-    <row r="114" spans="1:12" s="321" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="322" t="s">
-        <v>1361</v>
-      </c>
-      <c r="B114" s="323" t="s">
-        <v>1342</v>
-      </c>
-      <c r="C114" s="324" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D114" s="323" t="s">
-        <v>1343</v>
-      </c>
-      <c r="E114" s="328" t="s">
-        <v>1344</v>
-      </c>
-      <c r="F114" s="325"/>
-      <c r="G114" s="325"/>
-      <c r="H114" s="325"/>
-      <c r="I114" s="325"/>
-      <c r="J114" s="325"/>
-      <c r="K114" s="325"/>
-      <c r="L114" s="325"/>
-    </row>
-  </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A61:L61"/>
-    <mergeCell ref="A64:L64"/>
-    <mergeCell ref="A105:L105"/>
-    <mergeCell ref="A75:L75"/>
-    <mergeCell ref="A79:L79"/>
-    <mergeCell ref="A84:L84"/>
-    <mergeCell ref="A87:L87"/>
-    <mergeCell ref="A92:L92"/>
-    <mergeCell ref="A96:L96"/>
-    <mergeCell ref="A69:L69"/>
-    <mergeCell ref="A26:L26"/>
-    <mergeCell ref="A55:L55"/>
-    <mergeCell ref="A58:L58"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>